--- a/tests/regression_data/performance_analysis_zero_deviation.xlsx
+++ b/tests/regression_data/performance_analysis_zero_deviation.xlsx
@@ -688,40 +688,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.017700569932229</v>
+        <v>2.017700569933738</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999945674</v>
+        <v>2.300000000029564</v>
       </c>
       <c r="D2" t="n">
-        <v>2.717718920754614</v>
+        <v>2.717718920664225</v>
       </c>
       <c r="E2" t="n">
-        <v>92.56953369033423</v>
+        <v>92.56953368744014</v>
       </c>
       <c r="F2" t="n">
-        <v>79.21432923491105</v>
+        <v>79.21432923204111</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1442721370953354</v>
+        <v>0.1442721370995852</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.35860137200639</v>
+        <v>-78.3586013691407</v>
       </c>
       <c r="I2" t="n">
-        <v>135281.2075965311</v>
+        <v>135281.2075871305</v>
       </c>
       <c r="J2" t="n">
-        <v>83.14763835066449</v>
+        <v>83.14763834488663</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.83992753288257</v>
+        <v>-24.8399275335028</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6544847759846</v>
+        <v>134.6544847779678</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -736,13 +736,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>372006.94800768</v>
+        <v>372006.9480094835</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7130441830515905</v>
+        <v>0.7130441830397328</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -759,40 +759,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.072851537703685</v>
+        <v>2.072851537900292</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999540356</v>
+        <v>2.399999999860639</v>
       </c>
       <c r="D3" t="n">
-        <v>2.725101776179302</v>
+        <v>2.725101776077747</v>
       </c>
       <c r="E3" t="n">
-        <v>92.52049238624151</v>
+        <v>92.52049239478247</v>
       </c>
       <c r="F3" t="n">
-        <v>78.35440556119795</v>
+        <v>78.35440556521343</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1531129640545469</v>
+        <v>0.1531129640893254</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.50751852525249</v>
+        <v>-77.50751852930276</v>
       </c>
       <c r="I3" t="n">
-        <v>140209.3213384519</v>
+        <v>140209.3213404122</v>
       </c>
       <c r="J3" t="n">
-        <v>86.17659578269939</v>
+        <v>86.17659578390423</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.93527213554101</v>
+        <v>-26.93527213996669</v>
       </c>
       <c r="M3" t="n">
-        <v>141.8033039734942</v>
+        <v>141.803303989599</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -807,13 +807,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>370333.3907773428</v>
+        <v>370333.3907747061</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7014098127591519</v>
+        <v>0.7014098127460824</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.92994373500194</v>
+        <v>79.92994373225115</v>
       </c>
       <c r="D2" t="n">
-        <v>79.92994373500194</v>
+        <v>79.92994373225115</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.92994373500194</v>
+        <v>79.92994373225115</v>
       </c>
       <c r="H2" t="n">
-        <v>79.92994373500194</v>
+        <v>79.92994373225115</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3103,97 +3103,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.41495044132</v>
+        <v>292.4149504415394</v>
       </c>
       <c r="L2" t="n">
-        <v>132871.700797654</v>
+        <v>132871.7007980018</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583779025137762</v>
+        <v>1.583779025140718</v>
       </c>
       <c r="N2" t="n">
-        <v>334694.6798771483</v>
+        <v>334694.679877305</v>
       </c>
       <c r="O2" t="n">
-        <v>418590.0331358496</v>
+        <v>418590.0331360694</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687591.5556207889</v>
+        <v>-687591.5556213992</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7157387245692</v>
+        <v>717.7157387245791</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.650945680643</v>
+        <v>1006.650945680655</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576105505966</v>
+        <v>1.402576105505962</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994984012260851</v>
+        <v>0.9994984012260867</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9448990720581</v>
+        <v>342.9448990721868</v>
       </c>
       <c r="W2" t="n">
-        <v>186270.1576989206</v>
+        <v>186270.1576994081</v>
       </c>
       <c r="X2" t="n">
-        <v>5.368546482987138e-06</v>
+        <v>5.368546482973089e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132805.7400719268</v>
+        <v>132805.7400722747</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.529795018335848e-06</v>
+        <v>7.529795018316124e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432727394134364</v>
+        <v>0.003432727394131792</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817446758360758e-05</v>
+        <v>1.817446758361831e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0258290159889928</v>
+        <v>0.02582901598900934</v>
       </c>
       <c r="AD2" t="n">
-        <v>132871.700797654</v>
+        <v>132871.7007980018</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583779025137762</v>
+        <v>1.583779025140718</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583779025137762</v>
+        <v>1.583779025140718</v>
       </c>
       <c r="AG2" t="n">
-        <v>334694.6798771483</v>
+        <v>334694.679877305</v>
       </c>
       <c r="AH2" t="n">
-        <v>418590.0331358496</v>
+        <v>418590.0331360694</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7157387245692</v>
+        <v>717.7157387245791</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.650945680643</v>
+        <v>1006.650945680655</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9448990720581</v>
+        <v>342.9448990721868</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994984012260851</v>
+        <v>0.9994984012260867</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817446758360758e-05</v>
+        <v>1.817446758361831e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0258290159889928</v>
+        <v>0.02582901598900934</v>
       </c>
       <c r="AP2" t="n">
         <v>295.6000000000945</v>
@@ -3382,16 +3382,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.2330693471495764</v>
+        <v>0.2330693471414678</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.2330693471495764</v>
+        <v>0.2330693471414678</v>
       </c>
       <c r="DB2" t="n">
-        <v>182213.3265401493</v>
+        <v>182213.3265341108</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.717718920742351</v>
+        <v>2.717718920653892</v>
       </c>
       <c r="DD2" t="n">
         <v>421784.4310884894</v>
@@ -3400,343 +3400,343 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>267.951293655406</v>
+        <v>267.9512936417537</v>
       </c>
       <c r="DG2" t="n">
-        <v>109.486422163283</v>
+        <v>109.4864221577046</v>
       </c>
       <c r="DH2" t="n">
-        <v>244.5620966819858</v>
+        <v>244.5620966695252</v>
       </c>
       <c r="DI2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DJ2" t="n">
-        <v>267.951293655406</v>
+        <v>267.9512936417537</v>
       </c>
       <c r="DK2" t="n">
-        <v>109.486422163283</v>
+        <v>109.4864221577046</v>
       </c>
       <c r="DL2" t="n">
-        <v>244.5620966819858</v>
+        <v>244.5620966695252</v>
       </c>
       <c r="DM2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DN2" t="n">
-        <v>259.7774761331136</v>
+        <v>259.7774761367602</v>
       </c>
       <c r="DO2" t="n">
-        <v>86160.51930265616</v>
+        <v>86160.51930725067</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.156228926509323</v>
+        <v>1.156228926554733</v>
       </c>
       <c r="DQ2" t="n">
-        <v>311366.9191648014</v>
+        <v>311366.9191674061</v>
       </c>
       <c r="DR2" t="n">
-        <v>385885.4832027869</v>
+        <v>385885.4832064387</v>
       </c>
       <c r="DS2" t="n">
-        <v>3788.594327641767</v>
+        <v>3788.594327640528</v>
       </c>
       <c r="DT2" t="n">
-        <v>-598305.9893242217</v>
+        <v>-598305.989334064</v>
       </c>
       <c r="DU2" t="n">
-        <v>716.5428706243295</v>
+        <v>716.5428706244289</v>
       </c>
       <c r="DV2" t="n">
-        <v>1005.211773251009</v>
+        <v>1005.21177325114</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.402863407705334</v>
+        <v>1.402863407705323</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.9993250048389485</v>
+        <v>0.9993250048389617</v>
       </c>
       <c r="DY2" t="n">
-        <v>323.2167642368255</v>
+        <v>323.2167642390972</v>
       </c>
       <c r="DZ2" t="n">
-        <v>120790.1683874419</v>
+        <v>120790.1683938838</v>
       </c>
       <c r="EA2" t="n">
-        <v>8.278819487960629e-06</v>
+        <v>8.278819487519111e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>86102.58684059529</v>
+        <v>86102.58684518788</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.161405291865777e-05</v>
+        <v>1.161405291803829e-05</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.00386289647711161</v>
+        <v>0.003862896477057549</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.653940697257722e-05</v>
+        <v>1.653940697276436e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.02332344292824319</v>
+        <v>0.02332344292852846</v>
       </c>
       <c r="EG2" t="n">
-        <v>86160.51930265616</v>
+        <v>86160.51930725067</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.156228926509323</v>
+        <v>1.156228926554733</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.156228926509323</v>
+        <v>1.156228926554733</v>
       </c>
       <c r="EJ2" t="n">
-        <v>311366.9191648014</v>
+        <v>311366.9191674061</v>
       </c>
       <c r="EK2" t="n">
-        <v>385885.4832027869</v>
+        <v>385885.4832064387</v>
       </c>
       <c r="EL2" t="n">
-        <v>3788.594327641767</v>
+        <v>3788.594327640528</v>
       </c>
       <c r="EM2" t="n">
-        <v>716.5428706243295</v>
+        <v>716.5428706244289</v>
       </c>
       <c r="EN2" t="n">
-        <v>1005.211773251009</v>
+        <v>1005.21177325114</v>
       </c>
       <c r="EO2" t="n">
-        <v>323.2167642368255</v>
+        <v>323.2167642390972</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.9993250048389485</v>
+        <v>0.9993250048389617</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.653940697257722e-05</v>
+        <v>1.653940697276436e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.02332344292824319</v>
+        <v>0.02332344292852846</v>
       </c>
       <c r="ES2" t="n">
-        <v>295.5937313467971</v>
+        <v>295.5937313466983</v>
       </c>
       <c r="ET2" t="n">
-        <v>135296.310731416</v>
+        <v>135296.3107318407</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.595286006670046</v>
+        <v>1.595286006675591</v>
       </c>
       <c r="EV2" t="n">
-        <v>336974.3655795029</v>
+        <v>336974.3655794312</v>
       </c>
       <c r="EW2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="EX2" t="n">
-        <v>3788.594327646968</v>
+        <v>3788.594327645727</v>
       </c>
       <c r="EY2" t="n">
-        <v>-698100.3027798875</v>
+        <v>-698100.3027792469</v>
       </c>
       <c r="EZ2" t="n">
-        <v>717.8561941266224</v>
+        <v>717.856194126619</v>
       </c>
       <c r="FA2" t="n">
-        <v>1006.77719242723</v>
+        <v>1006.777192427234</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.402477544478282</v>
+        <v>1.402477544478294</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9995302652409198</v>
+        <v>0.9995302652409171</v>
       </c>
       <c r="FD2" t="n">
-        <v>344.8027922115534</v>
+        <v>344.8027922114964</v>
       </c>
       <c r="FE2" t="n">
-        <v>189661.9030365621</v>
+        <v>189661.9030371587</v>
       </c>
       <c r="FF2" t="n">
-        <v>5.272540156929803e-06</v>
+        <v>5.272540156913216e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>135233.4686450298</v>
+        <v>135233.468645454</v>
       </c>
       <c r="FH2" t="n">
-        <v>7.394619172454045e-06</v>
+        <v>7.394619172430849e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.003395620349782009</v>
+        <v>0.003395620349783195</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.832925761099618e-05</v>
+        <v>1.832925761099146e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.02606729972444801</v>
+        <v>0.02606729972444079</v>
       </c>
       <c r="FL2" t="n">
-        <v>135296.310731416</v>
+        <v>135296.3107318407</v>
       </c>
       <c r="FM2" t="n">
-        <v>1.595286006670046</v>
+        <v>1.595286006675591</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.595286006670046</v>
+        <v>1.595286006675591</v>
       </c>
       <c r="FO2" t="n">
-        <v>336974.3655795029</v>
+        <v>336974.3655794312</v>
       </c>
       <c r="FP2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FQ2" t="n">
-        <v>3788.594327646968</v>
+        <v>3788.594327645727</v>
       </c>
       <c r="FR2" t="n">
-        <v>717.8561941266224</v>
+        <v>717.856194126619</v>
       </c>
       <c r="FS2" t="n">
-        <v>1006.77719242723</v>
+        <v>1006.777192427234</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027922115534</v>
+        <v>344.8027922114964</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.9995302652409198</v>
+        <v>0.9995302652409171</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.832925761099618e-05</v>
+        <v>1.832925761099146e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.02606729972444801</v>
+        <v>0.02606729972444079</v>
       </c>
       <c r="FX2" t="n">
-        <v>295.5937313467971</v>
+        <v>295.5937313466983</v>
       </c>
       <c r="FY2" t="n">
-        <v>135296.310731416</v>
+        <v>135296.3107318407</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.595286006670046</v>
+        <v>1.595286006675591</v>
       </c>
       <c r="GA2" t="n">
-        <v>336974.3655795029</v>
+        <v>336974.3655794312</v>
       </c>
       <c r="GB2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GC2" t="n">
-        <v>3788.594327646968</v>
+        <v>3788.594327645727</v>
       </c>
       <c r="GD2" t="n">
-        <v>-698100.3027798875</v>
+        <v>-698100.3027792469</v>
       </c>
       <c r="GE2" t="n">
-        <v>717.8561941266224</v>
+        <v>717.856194126619</v>
       </c>
       <c r="GF2" t="n">
-        <v>1006.77719242723</v>
+        <v>1006.777192427234</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.402477544478282</v>
+        <v>1.402477544478294</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.9995302652409198</v>
+        <v>0.9995302652409171</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8027922115534</v>
+        <v>344.8027922114964</v>
       </c>
       <c r="GJ2" t="n">
-        <v>189661.9030365621</v>
+        <v>189661.9030371587</v>
       </c>
       <c r="GK2" t="n">
-        <v>5.272540156929803e-06</v>
+        <v>5.272540156913216e-06</v>
       </c>
       <c r="GL2" t="n">
-        <v>135233.4686450298</v>
+        <v>135233.468645454</v>
       </c>
       <c r="GM2" t="n">
-        <v>7.394619172454045e-06</v>
+        <v>7.394619172430849e-06</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.003395620349782009</v>
+        <v>0.003395620349783195</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.832925761099618e-05</v>
+        <v>1.832925761099146e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.02606729972444801</v>
+        <v>0.02606729972444079</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135296.310731416</v>
+        <v>135296.3107318407</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595286006670046</v>
+        <v>1.595286006675591</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595286006670046</v>
+        <v>1.595286006675591</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3655795029</v>
+        <v>336974.3655794312</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.594327646968</v>
+        <v>3788.594327645727</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561941266224</v>
+        <v>717.856194126619</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.77719242723</v>
+        <v>1006.777192427234</v>
       </c>
       <c r="GY2" t="n">
-        <v>344.8027922115534</v>
+        <v>344.8027922114964</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302652409198</v>
+        <v>0.9995302652409171</v>
       </c>
       <c r="HA2" t="n">
-        <v>1.832925761099618e-05</v>
+        <v>1.832925761099146e-05</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.02606729972444801</v>
+        <v>0.02606729972444079</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.8290142198783795</v>
+        <v>0.829014219830314</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.8290142198783795</v>
+        <v>0.829014219830314</v>
       </c>
       <c r="HE2" t="n">
-        <v>490024.1617741406</v>
+        <v>490024.1617628746</v>
       </c>
       <c r="HF2" t="n">
-        <v>2.717718920683564</v>
+        <v>2.717718920651831</v>
       </c>
       <c r="HG2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.01611691534486064</v>
+        <v>0.01611691534489195</v>
       </c>
       <c r="HI2" t="n">
-        <v>-1.785867205385024e-07</v>
+        <v>-1.785867205538613e-07</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.01379684642892146</v>
+        <v>0.0137968464289208</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.02511126098066513</v>
+        <v>0.02511126098068089</v>
       </c>
       <c r="HL2" t="n">
         <v>0</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.05502484416772668</v>
+        <v>0.05502484416777308</v>
       </c>
       <c r="HN2" t="n">
-        <v>-2.834552037533911e-12</v>
+        <v>-6.856286371981213e-12</v>
       </c>
       <c r="HO2" t="n">
         <v>0</v>
@@ -3745,664 +3745,664 @@
         <v>165.3032</v>
       </c>
       <c r="HQ2" t="n">
-        <v>267.951293655406</v>
+        <v>267.9512936417536</v>
       </c>
       <c r="HR2" t="n">
-        <v>109.486422163283</v>
+        <v>109.4864221577046</v>
       </c>
       <c r="HS2" t="n">
-        <v>244.5620966819858</v>
+        <v>244.5620966695252</v>
       </c>
       <c r="HT2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="HU2" t="n">
-        <v>135.1637870931498</v>
+        <v>135.1637870813243</v>
       </c>
       <c r="HV2" t="n">
-        <v>109.486422163283</v>
+        <v>109.4864221577046</v>
       </c>
       <c r="HW2" t="n">
-        <v>79.25889668198585</v>
+        <v>79.25889666952517</v>
       </c>
       <c r="HX2" t="n">
-        <v>35.90135448147685</v>
+        <v>35.90135447858487</v>
       </c>
       <c r="HY2" t="n">
-        <v>259.7774761330136</v>
+        <v>259.7774761366668</v>
       </c>
       <c r="HZ2" t="n">
-        <v>86160.51930254033</v>
+        <v>86160.51930721974</v>
       </c>
       <c r="IA2" t="n">
-        <v>1.156228926508214</v>
+        <v>1.156228926554735</v>
       </c>
       <c r="IB2" t="n">
-        <v>311366.91916473</v>
+        <v>311366.919167339</v>
       </c>
       <c r="IC2" t="n">
-        <v>385885.4832026868</v>
+        <v>385885.4832063447</v>
       </c>
       <c r="ID2" t="n">
-        <v>3788.594327641768</v>
+        <v>3788.59432764027</v>
       </c>
       <c r="IE2" t="n">
-        <v>-598305.9893239433</v>
+        <v>-598305.9893337367</v>
       </c>
       <c r="IF2" t="n">
-        <v>716.5428706243267</v>
+        <v>716.5428706244267</v>
       </c>
       <c r="IG2" t="n">
-        <v>1005.211773251005</v>
+        <v>1005.211773251139</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.402863407705334</v>
+        <v>1.402863407705325</v>
       </c>
       <c r="II2" t="n">
-        <v>0.999325004838948</v>
+        <v>0.9993250048389607</v>
       </c>
       <c r="IJ2" t="n">
-        <v>323.2167642367633</v>
+        <v>323.216764239039</v>
       </c>
       <c r="IK2" t="n">
-        <v>120790.1683872795</v>
+        <v>120790.1683938405</v>
       </c>
       <c r="IL2" t="n">
-        <v>8.278819487971759e-06</v>
+        <v>8.278819487522079e-06</v>
       </c>
       <c r="IM2" t="n">
-        <v>86102.5868404795</v>
+        <v>86102.58684515685</v>
       </c>
       <c r="IN2" t="n">
-        <v>1.161405291867339e-05</v>
+        <v>1.161405291804248e-05</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.003862896477113094</v>
+        <v>0.003862896477058948</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.65394069725721e-05</v>
+        <v>1.653940697275957e-05</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.02332344292823537</v>
+        <v>0.02332344292852119</v>
       </c>
       <c r="IR2" t="n">
-        <v>86160.51930254033</v>
+        <v>86160.51930721974</v>
       </c>
       <c r="IS2" t="n">
-        <v>1.156228926508214</v>
+        <v>1.156228926554735</v>
       </c>
       <c r="IT2" t="n">
-        <v>1.156228926508214</v>
+        <v>1.156228926554735</v>
       </c>
       <c r="IU2" t="n">
-        <v>311366.91916473</v>
+        <v>311366.919167339</v>
       </c>
       <c r="IV2" t="n">
-        <v>385885.4832026868</v>
+        <v>385885.4832063447</v>
       </c>
       <c r="IW2" t="n">
-        <v>3788.594327641768</v>
+        <v>3788.59432764027</v>
       </c>
       <c r="IX2" t="n">
-        <v>716.5428706243267</v>
+        <v>716.5428706244267</v>
       </c>
       <c r="IY2" t="n">
-        <v>1005.211773251005</v>
+        <v>1005.211773251139</v>
       </c>
       <c r="IZ2" t="n">
-        <v>323.2167642367633</v>
+        <v>323.216764239039</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.999325004838948</v>
+        <v>0.9993250048389607</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.65394069725721e-05</v>
+        <v>1.653940697275957e-05</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.02332344292823537</v>
+        <v>0.02332344292852119</v>
       </c>
       <c r="JD2" t="n">
-        <v>295.5937313468971</v>
+        <v>295.5937313465985</v>
       </c>
       <c r="JE2" t="n">
-        <v>135296.3107315761</v>
+        <v>135296.3107318016</v>
       </c>
       <c r="JF2" t="n">
-        <v>1.595286006671393</v>
+        <v>1.59528600667567</v>
       </c>
       <c r="JG2" t="n">
-        <v>336974.3655795747</v>
+        <v>336974.3655793595</v>
       </c>
       <c r="JH2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.431088389</v>
       </c>
       <c r="JI2" t="n">
-        <v>3788.594327646968</v>
+        <v>3788.59432764547</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-698100.3027801657</v>
+        <v>-698100.3027788933</v>
       </c>
       <c r="JK2" t="n">
-        <v>717.8561941266271</v>
+        <v>717.8561941266148</v>
       </c>
       <c r="JL2" t="n">
-        <v>1006.777192427236</v>
+        <v>1006.777192427231</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.40247754447828</v>
+        <v>1.402477544478298</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.9995302652409205</v>
+        <v>0.999530265240916</v>
       </c>
       <c r="JO2" t="n">
-        <v>344.8027922116117</v>
+        <v>344.8027922114383</v>
       </c>
       <c r="JP2" t="n">
-        <v>189661.9030367865</v>
+        <v>189661.9030371041</v>
       </c>
       <c r="JQ2" t="n">
-        <v>5.272540156923563e-06</v>
+        <v>5.272540156914733e-06</v>
       </c>
       <c r="JR2" t="n">
-        <v>135233.4686451899</v>
+        <v>135233.4686454147</v>
       </c>
       <c r="JS2" t="n">
-        <v>7.394619172445287e-06</v>
+        <v>7.394619172432998e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.003395620349780862</v>
+        <v>0.003395620349784352</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.832925761100105e-05</v>
+        <v>1.832925761098661e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.02606729972445552</v>
+        <v>0.02606729972443332</v>
       </c>
       <c r="JW2" t="n">
-        <v>135296.3107315761</v>
+        <v>135296.3107318016</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.595286006671393</v>
+        <v>1.59528600667567</v>
       </c>
       <c r="JY2" t="n">
-        <v>1.595286006671393</v>
+        <v>1.59528600667567</v>
       </c>
       <c r="JZ2" t="n">
-        <v>336974.3655795747</v>
+        <v>336974.3655793595</v>
       </c>
       <c r="KA2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KB2" t="n">
-        <v>3788.594327646968</v>
+        <v>3788.59432764547</v>
       </c>
       <c r="KC2" t="n">
-        <v>717.8561941266271</v>
+        <v>717.8561941266148</v>
       </c>
       <c r="KD2" t="n">
-        <v>1006.777192427236</v>
+        <v>1006.777192427231</v>
       </c>
       <c r="KE2" t="n">
-        <v>344.8027922116117</v>
+        <v>344.8027922114383</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.9995302652409205</v>
+        <v>0.999530265240916</v>
       </c>
       <c r="KG2" t="n">
-        <v>1.832925761100105e-05</v>
+        <v>1.832925761098661e-05</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.02606729972445552</v>
+        <v>0.02606729972443332</v>
       </c>
       <c r="KI2" t="n">
-        <v>268.8953286517013</v>
+        <v>268.8953286534583</v>
       </c>
       <c r="KJ2" t="n">
-        <v>97192.0702879414</v>
+        <v>97192.07029066546</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.2599863536615</v>
+        <v>1.259986353688575</v>
       </c>
       <c r="KL2" t="n">
-        <v>317882.7087219799</v>
+        <v>317882.7087232346</v>
       </c>
       <c r="KM2" t="n">
-        <v>395020.1078735683</v>
+        <v>395020.1078753273</v>
       </c>
       <c r="KN2" t="n">
-        <v>3788.594327641768</v>
+        <v>3788.594327640269</v>
       </c>
       <c r="KO2" t="n">
-        <v>-623715.2089856365</v>
+        <v>-623715.2089901307</v>
       </c>
       <c r="KP2" t="n">
-        <v>716.8095260456395</v>
+        <v>716.8095260456963</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1005.541905458538</v>
+        <v>1005.541905458616</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.402802095845076</v>
+        <v>1.402802095845073</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9993681492994503</v>
+        <v>0.9993681492994558</v>
       </c>
       <c r="KT2" t="n">
-        <v>328.8471955591451</v>
+        <v>328.847195560221</v>
       </c>
       <c r="KU2" t="n">
-        <v>136255.5265925957</v>
+        <v>136255.5265964152</v>
       </c>
       <c r="KV2" t="n">
-        <v>7.339151849524621e-06</v>
+        <v>7.339151849318893e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>97130.96879179722</v>
+        <v>97130.96879452011</v>
       </c>
       <c r="KX2" t="n">
-        <v>1.02953775962384e-05</v>
+        <v>1.029537759594978e-05</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.003732159335888152</v>
+        <v>0.003732159335863882</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.700397342638116e-05</v>
+        <v>1.700397342647014e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02403259065086103</v>
+        <v>0.02403259065099713</v>
       </c>
       <c r="LB2" t="n">
-        <v>97192.0702879414</v>
+        <v>97192.07029066546</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.2599863536615</v>
+        <v>1.259986353688575</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.2599863536615</v>
+        <v>1.259986353688575</v>
       </c>
       <c r="LE2" t="n">
-        <v>317882.7087219799</v>
+        <v>317882.7087232346</v>
       </c>
       <c r="LF2" t="n">
-        <v>395020.1078735683</v>
+        <v>395020.1078753273</v>
       </c>
       <c r="LG2" t="n">
-        <v>3788.594327641768</v>
+        <v>3788.594327640269</v>
       </c>
       <c r="LH2" t="n">
-        <v>716.8095260456395</v>
+        <v>716.8095260456963</v>
       </c>
       <c r="LI2" t="n">
-        <v>1005.541905458538</v>
+        <v>1005.541905458616</v>
       </c>
       <c r="LJ2" t="n">
-        <v>328.8471955591451</v>
+        <v>328.847195560221</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9993681492994503</v>
+        <v>0.9993681492994558</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.700397342638116e-05</v>
+        <v>1.700397342647014e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02403259065086103</v>
+        <v>0.02403259065099713</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.8290142198785392</v>
+        <v>0.8290142198304631</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.4181830958314385</v>
+        <v>0.4181830957919072</v>
       </c>
       <c r="LP2" t="n">
-        <v>246240.0323888269</v>
+        <v>246240.0323743996</v>
       </c>
       <c r="LQ2" t="n">
-        <v>2.717718920680957</v>
+        <v>2.717718920651835</v>
       </c>
       <c r="LR2" t="n">
-        <v>381357.533908348</v>
+        <v>381357.5339103075</v>
       </c>
       <c r="LS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="LT2" t="n">
-        <v>134.6544847759846</v>
+        <v>134.6544847779678</v>
       </c>
       <c r="LU2" t="n">
-        <v>122.1969191733574</v>
+        <v>122.1969191745448</v>
       </c>
       <c r="LV2" t="n">
-        <v>-56.5662727676644</v>
+        <v>-56.56627276982033</v>
       </c>
       <c r="LW2" t="n">
-        <v>-24.83992753288257</v>
+        <v>-24.8399275335028</v>
       </c>
       <c r="LX2" t="n">
-        <v>253.294591339139</v>
+        <v>253.2945913416003</v>
       </c>
       <c r="LY2" t="n">
-        <v>122.1969191733574</v>
+        <v>122.1969191745448</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-221.8694727676644</v>
+        <v>-221.8694727698203</v>
       </c>
       <c r="MA2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MB2" t="n">
-        <v>236.8577784196948</v>
+        <v>236.8577784212237</v>
       </c>
       <c r="MC2" t="n">
-        <v>60000.00000041813</v>
+        <v>59999.99999822968</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.8831280873869365</v>
+        <v>0.883128087348983</v>
       </c>
       <c r="ME2" t="n">
-        <v>295000.7183730213</v>
+        <v>295000.7183741232</v>
       </c>
       <c r="MF2" t="n">
-        <v>362941.03287253</v>
+        <v>362941.0328740738</v>
       </c>
       <c r="MG2" t="n">
-        <v>3799.929754826071</v>
+        <v>3799.929754843051</v>
       </c>
       <c r="MH2" t="n">
-        <v>-537101.8870064687</v>
+        <v>-537101.8870147566</v>
       </c>
       <c r="MI2" t="n">
-        <v>716.0325578008989</v>
+        <v>716.0325578009085</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1004.4879308728</v>
+        <v>1004.487930872737</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.402852314366563</v>
+        <v>1.402852314366455</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.9992718914416701</v>
+        <v>0.999271891441717</v>
       </c>
       <c r="MM2" t="n">
-        <v>308.6113425327027</v>
+        <v>308.6113425337014</v>
       </c>
       <c r="MN2" t="n">
-        <v>84109.96749906668</v>
+        <v>84109.96749599636</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.188919731791712e-05</v>
+        <v>1.188919731835112e-05</v>
       </c>
       <c r="MP2" t="n">
-        <v>59956.39500872573</v>
+        <v>59956.39500654167</v>
       </c>
       <c r="MQ2" t="n">
-        <v>1.667878797340076e-05</v>
+        <v>1.667878797400832e-05</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.004235352711879363</v>
+        <v>0.004235352711851287</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.53421601740624e-05</v>
+        <v>1.534216017414311e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02150521903496121</v>
+        <v>0.02150521903508271</v>
       </c>
       <c r="MU2" t="n">
-        <v>60000.00000041813</v>
+        <v>59999.99999822968</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.8831280873869365</v>
+        <v>0.883128087348983</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8831280873869365</v>
+        <v>0.883128087348983</v>
       </c>
       <c r="MX2" t="n">
-        <v>295000.7183730213</v>
+        <v>295000.7183741232</v>
       </c>
       <c r="MY2" t="n">
-        <v>362941.03287253</v>
+        <v>362941.0328740738</v>
       </c>
       <c r="MZ2" t="n">
-        <v>3799.929754826071</v>
+        <v>3799.929754843051</v>
       </c>
       <c r="NA2" t="n">
-        <v>716.0325578008989</v>
+        <v>716.0325578009085</v>
       </c>
       <c r="NB2" t="n">
-        <v>1004.4879308728</v>
+        <v>1004.487930872737</v>
       </c>
       <c r="NC2" t="n">
-        <v>308.6113425327027</v>
+        <v>308.6113425337014</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.9992718914416701</v>
+        <v>0.999271891441717</v>
       </c>
       <c r="NE2" t="n">
-        <v>1.53421601740624e-05</v>
+        <v>1.534216017414311e-05</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.02150521903496121</v>
+        <v>0.02150521903508271</v>
       </c>
       <c r="NG2" t="n">
-        <v>245.9111911224407</v>
+        <v>245.9111911242356</v>
       </c>
       <c r="NH2" t="n">
-        <v>68394.68752409445</v>
+        <v>68394.6875240433</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.9695995977813081</v>
+        <v>0.9695995977734823</v>
       </c>
       <c r="NJ2" t="n">
-        <v>301467.8433292138</v>
+        <v>301467.8433305006</v>
       </c>
       <c r="NK2" t="n">
-        <v>372006.94800768</v>
+        <v>372006.9480094835</v>
       </c>
       <c r="NL2" t="n">
-        <v>3799.929754834649</v>
+        <v>3799.929754842197</v>
       </c>
       <c r="NM2" t="n">
-        <v>-562438.3041853124</v>
+        <v>-562438.3041921856</v>
       </c>
       <c r="NN2" t="n">
-        <v>716.2025895025033</v>
+        <v>716.202589502533</v>
       </c>
       <c r="NO2" t="n">
-        <v>1004.717083342871</v>
+        <v>1004.717083342874</v>
       </c>
       <c r="NP2" t="n">
-        <v>1.40283922184752</v>
+        <v>1.402839221847466</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.999298923542162</v>
+        <v>0.9992989235421862</v>
       </c>
       <c r="NR2" t="n">
-        <v>314.4611573919772</v>
+        <v>314.4611573931264</v>
       </c>
       <c r="NS2" t="n">
-        <v>95879.6508215245</v>
+        <v>95879.65082145142</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.042974177973857e-05</v>
+        <v>1.042974177974652e-05</v>
       </c>
       <c r="NU2" t="n">
-        <v>68346.85638119835</v>
+        <v>68346.85638114887</v>
       </c>
       <c r="NV2" t="n">
-        <v>1.463125084235903e-05</v>
+        <v>1.463125084236962e-05</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.004079731787060887</v>
+        <v>0.004079731787030821</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.582000283790551e-05</v>
+        <v>1.582000283799928e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.02222905145460607</v>
+        <v>0.02222905145474807</v>
       </c>
       <c r="NZ2" t="n">
-        <v>68394.68752409445</v>
+        <v>68394.6875240433</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.9695995977813081</v>
+        <v>0.9695995977734823</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.9695995977813081</v>
+        <v>0.9695995977734823</v>
       </c>
       <c r="OC2" t="n">
-        <v>301467.8433292138</v>
+        <v>301467.8433305006</v>
       </c>
       <c r="OD2" t="n">
-        <v>372006.94800768</v>
+        <v>372006.9480094835</v>
       </c>
       <c r="OE2" t="n">
-        <v>3799.929754834649</v>
+        <v>3799.929754842197</v>
       </c>
       <c r="OF2" t="n">
-        <v>716.2025895025033</v>
+        <v>716.202589502533</v>
       </c>
       <c r="OG2" t="n">
-        <v>1004.717083342871</v>
+        <v>1004.717083342874</v>
       </c>
       <c r="OH2" t="n">
-        <v>314.4611573919772</v>
+        <v>314.4611573931264</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.999298923542162</v>
+        <v>0.9992989235421862</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1.582000283790551e-05</v>
+        <v>1.582000283799928e-05</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.02222905145460607</v>
+        <v>0.02222905145474807</v>
       </c>
       <c r="OL2" t="n">
-        <v>268.8847462703194</v>
+        <v>268.8847462722676</v>
       </c>
       <c r="OM2" t="n">
-        <v>93426.51011034985</v>
+        <v>93426.5101080313</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.211188388377363</v>
+        <v>1.211188388338482</v>
       </c>
       <c r="OO2" t="n">
-        <v>317883.8745616252</v>
+        <v>317883.8745630286</v>
       </c>
       <c r="OP2" t="n">
-        <v>395020.1078733678</v>
+        <v>395020.1078753333</v>
       </c>
       <c r="OQ2" t="n">
-        <v>3799.929754826071</v>
+        <v>3799.929754840499</v>
       </c>
       <c r="OR2" t="n">
-        <v>-626723.0400980772</v>
+        <v>-626723.0401073946</v>
       </c>
       <c r="OS2" t="n">
-        <v>716.7971468091329</v>
+        <v>716.7971468091794</v>
       </c>
       <c r="OT2" t="n">
-        <v>1005.464364792045</v>
+        <v>1005.464364792023</v>
       </c>
       <c r="OU2" t="n">
-        <v>1.402718145946775</v>
+        <v>1.402718145946653</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.9993923761492854</v>
+        <v>0.9993923761493252</v>
       </c>
       <c r="OW2" t="n">
-        <v>328.8388167163033</v>
+        <v>328.8388167174934</v>
       </c>
       <c r="OX2" t="n">
-        <v>130971.8168674682</v>
+        <v>130971.8168642118</v>
       </c>
       <c r="OY2" t="n">
-        <v>7.635230417639476e-06</v>
+        <v>7.635230417829313e-06</v>
       </c>
       <c r="OZ2" t="n">
-        <v>93370.01681051741</v>
+        <v>93370.01680820399</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.071007625530767e-05</v>
+        <v>1.071007625557303e-05</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.00373179502507285</v>
+        <v>0.003731795025045222</v>
       </c>
       <c r="PC2" t="n">
-        <v>1.700286758276082e-05</v>
+        <v>1.700286758285869e-05</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.02403044236757202</v>
+        <v>0.02403044236772106</v>
       </c>
       <c r="PE2" t="n">
-        <v>93426.51011034985</v>
+        <v>93426.5101080313</v>
       </c>
       <c r="PF2" t="n">
-        <v>1.211188388377363</v>
+        <v>1.211188388338482</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.211188388377363</v>
+        <v>1.211188388338482</v>
       </c>
       <c r="PH2" t="n">
-        <v>317883.8745616252</v>
+        <v>317883.8745630286</v>
       </c>
       <c r="PI2" t="n">
-        <v>395020.1078733678</v>
+        <v>395020.1078753333</v>
       </c>
       <c r="PJ2" t="n">
-        <v>3799.929754826071</v>
+        <v>3799.929754840499</v>
       </c>
       <c r="PK2" t="n">
-        <v>716.7971468091329</v>
+        <v>716.7971468091794</v>
       </c>
       <c r="PL2" t="n">
-        <v>1005.464364792045</v>
+        <v>1005.464364792023</v>
       </c>
       <c r="PM2" t="n">
-        <v>328.8388167163033</v>
+        <v>328.8388167174934</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.9993923761492854</v>
+        <v>0.9993923761493252</v>
       </c>
       <c r="PO2" t="n">
-        <v>1.700286758276082e-05</v>
+        <v>1.700286758285869e-05</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.02403044236757202</v>
+        <v>0.02403044236772106</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.4363238358995687</v>
+        <v>0.4363238359045831</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.820755936124733</v>
+        <v>0.8207559361300522</v>
       </c>
       <c r="PS2" t="n">
-        <v>379959.6794589237</v>
+        <v>379959.6794442877</v>
       </c>
       <c r="PT2" t="n">
-        <v>2.717718920754614</v>
+        <v>2.717718920664225</v>
       </c>
       <c r="PU2" t="n">
-        <v>381357.533908348</v>
+        <v>381357.5339103075</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02417559754297607</v>
+        <v>0.02417559754029134</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.002020493328471936</v>
+        <v>0.002020493326765246</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.01190512760898596</v>
+        <v>0.01190512760911613</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.0319229788345199</v>
+        <v>0.03192297883338758</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.04262771182568584</v>
+        <v>0.04262771182379295</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.1126519091406397</v>
+        <v>0.1126519091333532</v>
       </c>
       <c r="QB2" t="n">
-        <v>-6.585029743710891e-11</v>
+        <v>9.273097567596977e-11</v>
       </c>
       <c r="QC2" t="n">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.15960735687608</v>
+        <v>80.15960734464592</v>
       </c>
       <c r="D3" t="n">
-        <v>80.15960735687608</v>
+        <v>80.15960734464592</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4428,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.15960735687608</v>
+        <v>80.15960734464592</v>
       </c>
       <c r="H3" t="n">
-        <v>80.15960735687608</v>
+        <v>80.15960734464592</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4440,97 +4440,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3966194745682</v>
+        <v>292.3966194754458</v>
       </c>
       <c r="L3" t="n">
-        <v>132842.5878723571</v>
+        <v>132842.5878737509</v>
       </c>
       <c r="M3" t="n">
-        <v>1.583531482065886</v>
+        <v>1.583531482077738</v>
       </c>
       <c r="N3" t="n">
-        <v>334681.5665046678</v>
+        <v>334681.5665052959</v>
       </c>
       <c r="O3" t="n">
-        <v>418571.6497627851</v>
+        <v>418571.6497636655</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687540.5944617274</v>
+        <v>-687540.594464167</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7149084339101</v>
+        <v>717.71490843395</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.649982352542</v>
+        <v>1006.649982352588</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402576385864832</v>
+        <v>1.402576385864818</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994982731233792</v>
+        <v>0.9994982731233854</v>
       </c>
       <c r="V3" t="n">
-        <v>342.934139641102</v>
+        <v>342.9341396416172</v>
       </c>
       <c r="W3" t="n">
-        <v>186229.3579233845</v>
+        <v>186229.3579253379</v>
       </c>
       <c r="X3" t="n">
-        <v>5.36972264282522e-06</v>
+        <v>5.369722642768894e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132776.624360858</v>
+        <v>132776.624362252</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.531446177470348e-06</v>
+        <v>7.531446177391277e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003432942251633129</v>
+        <v>0.003432942251622842</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817357072399201e-05</v>
+        <v>1.817357072403495e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0258276345244337</v>
+        <v>0.02582763452449984</v>
       </c>
       <c r="AD3" t="n">
-        <v>132842.5878723571</v>
+        <v>132842.5878737509</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.583531482065886</v>
+        <v>1.583531482077738</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.583531482065886</v>
+        <v>1.583531482077738</v>
       </c>
       <c r="AG3" t="n">
-        <v>334681.5665046678</v>
+        <v>334681.5665052959</v>
       </c>
       <c r="AH3" t="n">
-        <v>418571.6497627851</v>
+        <v>418571.6497636655</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7149084339101</v>
+        <v>717.71490843395</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.649982352542</v>
+        <v>1006.649982352588</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.934139641102</v>
+        <v>342.9341396416172</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994982731233792</v>
+        <v>0.9994982731233854</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817357072399201e-05</v>
+        <v>1.817357072403495e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0258276345244337</v>
+        <v>0.02582763452449984</v>
       </c>
       <c r="AP3" t="n">
         <v>295.6000000000945</v>
@@ -4719,16 +4719,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2337463614464491</v>
+        <v>0.2337463614104346</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.2337463614464491</v>
+        <v>0.2337463614104346</v>
       </c>
       <c r="DB3" t="n">
-        <v>182717.3371791807</v>
+        <v>182717.3371522389</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.725101776357638</v>
+        <v>2.725101775962259</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310884894</v>
@@ -4737,343 +4737,343 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>270.6420302523406</v>
+        <v>270.6420302537853</v>
       </c>
       <c r="DG3" t="n">
-        <v>110.5858724363653</v>
+        <v>110.5858724369556</v>
       </c>
       <c r="DH3" t="n">
-        <v>247.0179616072418</v>
+        <v>247.0179616085604</v>
       </c>
       <c r="DI3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DJ3" t="n">
-        <v>270.6420302523406</v>
+        <v>270.6420302537853</v>
       </c>
       <c r="DK3" t="n">
-        <v>110.5858724363653</v>
+        <v>110.5858724369556</v>
       </c>
       <c r="DL3" t="n">
-        <v>247.0179616072418</v>
+        <v>247.0179616085604</v>
       </c>
       <c r="DM3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DN3" t="n">
-        <v>259.0540156457034</v>
+        <v>259.0540156453187</v>
       </c>
       <c r="DO3" t="n">
-        <v>85297.17934081118</v>
+        <v>85297.17934010478</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.147843382021277</v>
+        <v>1.147843382013475</v>
       </c>
       <c r="DQ3" t="n">
-        <v>310850.0599629796</v>
+        <v>310850.0599627055</v>
       </c>
       <c r="DR3" t="n">
-        <v>385160.8768190286</v>
+        <v>385160.8768186443</v>
       </c>
       <c r="DS3" t="n">
-        <v>3788.689924007552</v>
+        <v>3788.689924008445</v>
       </c>
       <c r="DT3" t="n">
-        <v>-596314.4620315426</v>
+        <v>-596314.4620307006</v>
       </c>
       <c r="DU3" t="n">
-        <v>716.5233972856994</v>
+        <v>716.5233972856884</v>
       </c>
       <c r="DV3" t="n">
-        <v>1005.186749691048</v>
+        <v>1005.18674969103</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.402866610495694</v>
+        <v>1.402866610495689</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.9993220643801728</v>
+        <v>0.9993220643801732</v>
       </c>
       <c r="DY3" t="n">
-        <v>322.7657950596887</v>
+        <v>322.7657950594487</v>
       </c>
       <c r="DZ3" t="n">
-        <v>119579.750602711</v>
+        <v>119579.7506017203</v>
       </c>
       <c r="EA3" t="n">
-        <v>8.362619883046729e-06</v>
+        <v>8.362619883116009e-06</v>
       </c>
       <c r="EB3" t="n">
-        <v>85239.57282043961</v>
+        <v>85239.57281973376</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.173164021019366e-05</v>
+        <v>1.173164021029081e-05</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.003873658636316956</v>
+        <v>0.003873658636322654</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.65022677799721e-05</v>
+        <v>1.65022677799523e-05</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.02326683852610837</v>
+        <v>0.02326683852607817</v>
       </c>
       <c r="EG3" t="n">
-        <v>85297.17934081118</v>
+        <v>85297.17934010478</v>
       </c>
       <c r="EH3" t="n">
-        <v>1.147843382021277</v>
+        <v>1.147843382013475</v>
       </c>
       <c r="EI3" t="n">
-        <v>1.147843382021277</v>
+        <v>1.147843382013475</v>
       </c>
       <c r="EJ3" t="n">
-        <v>310850.0599629796</v>
+        <v>310850.0599627055</v>
       </c>
       <c r="EK3" t="n">
-        <v>385160.8768190286</v>
+        <v>385160.8768186443</v>
       </c>
       <c r="EL3" t="n">
-        <v>3788.689924007552</v>
+        <v>3788.689924008445</v>
       </c>
       <c r="EM3" t="n">
-        <v>716.5233972856994</v>
+        <v>716.5233972856884</v>
       </c>
       <c r="EN3" t="n">
-        <v>1005.186749691048</v>
+        <v>1005.18674969103</v>
       </c>
       <c r="EO3" t="n">
-        <v>322.7657950596887</v>
+        <v>322.7657950594487</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.9993220643801728</v>
+        <v>0.9993220643801732</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.65022677799721e-05</v>
+        <v>1.65022677799523e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.02326683852610837</v>
+        <v>0.02326683852607817</v>
       </c>
       <c r="ES3" t="n">
-        <v>295.5936268381328</v>
+        <v>295.5936268383318</v>
       </c>
       <c r="ET3" t="n">
-        <v>135251.2391518232</v>
+        <v>135251.2391517229</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.594754884331117</v>
+        <v>1.594754884328857</v>
       </c>
       <c r="EV3" t="n">
-        <v>336974.3825469472</v>
+        <v>336974.3825470905</v>
       </c>
       <c r="EW3" t="n">
-        <v>421784.4310883888</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="EX3" t="n">
-        <v>3788.689924012755</v>
+        <v>3788.689924013646</v>
       </c>
       <c r="EY3" t="n">
-        <v>-698128.1645156313</v>
+        <v>-698128.164516448</v>
       </c>
       <c r="EZ3" t="n">
-        <v>717.8560767284869</v>
+        <v>717.8560767284954</v>
       </c>
       <c r="FA3" t="n">
-        <v>1006.776452400079</v>
+        <v>1006.776452400083</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.402476742954242</v>
+        <v>1.402476742954231</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.999530418657544</v>
+        <v>0.9995304186575469</v>
       </c>
       <c r="FD3" t="n">
-        <v>344.8026850519631</v>
+        <v>344.8026850520787</v>
       </c>
       <c r="FE3" t="n">
-        <v>189598.640602182</v>
+        <v>189598.6406020405</v>
       </c>
       <c r="FF3" t="n">
-        <v>5.274299419151486e-06</v>
+        <v>5.274299419155421e-06</v>
       </c>
       <c r="FG3" t="n">
-        <v>135188.4382787002</v>
+        <v>135188.4382786004</v>
       </c>
       <c r="FH3" t="n">
-        <v>7.397082270737026e-06</v>
+        <v>7.397082270742488e-06</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.003395617376242837</v>
+        <v>0.003395617376240516</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.832924604018622e-05</v>
+        <v>1.832924604019585e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.02606727748018426</v>
+        <v>0.02606727748019907</v>
       </c>
       <c r="FL3" t="n">
-        <v>135251.2391518232</v>
+        <v>135251.2391517229</v>
       </c>
       <c r="FM3" t="n">
-        <v>1.594754884331117</v>
+        <v>1.594754884328857</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.594754884331117</v>
+        <v>1.594754884328857</v>
       </c>
       <c r="FO3" t="n">
-        <v>336974.3825469472</v>
+        <v>336974.3825470905</v>
       </c>
       <c r="FP3" t="n">
-        <v>421784.4310883888</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="FQ3" t="n">
-        <v>3788.689924012755</v>
+        <v>3788.689924013646</v>
       </c>
       <c r="FR3" t="n">
-        <v>717.8560767284869</v>
+        <v>717.8560767284954</v>
       </c>
       <c r="FS3" t="n">
-        <v>1006.776452400079</v>
+        <v>1006.776452400083</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8026850519631</v>
+        <v>344.8026850520787</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.999530418657544</v>
+        <v>0.9995304186575469</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.832924604018622e-05</v>
+        <v>1.832924604019585e-05</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.02606727748018426</v>
+        <v>0.02606727748019907</v>
       </c>
       <c r="FX3" t="n">
-        <v>295.5936268381328</v>
+        <v>295.5936268383318</v>
       </c>
       <c r="FY3" t="n">
-        <v>135251.2391518232</v>
+        <v>135251.2391517229</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.594754884331117</v>
+        <v>1.594754884328857</v>
       </c>
       <c r="GA3" t="n">
-        <v>336974.3825469472</v>
+        <v>336974.3825470905</v>
       </c>
       <c r="GB3" t="n">
-        <v>421784.4310883888</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="GC3" t="n">
-        <v>3788.689924012755</v>
+        <v>3788.689924013646</v>
       </c>
       <c r="GD3" t="n">
-        <v>-698128.1645156313</v>
+        <v>-698128.164516448</v>
       </c>
       <c r="GE3" t="n">
-        <v>717.8560767284869</v>
+        <v>717.8560767284954</v>
       </c>
       <c r="GF3" t="n">
-        <v>1006.776452400079</v>
+        <v>1006.776452400083</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.402476742954242</v>
+        <v>1.402476742954231</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.999530418657544</v>
+        <v>0.9995304186575469</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8026850519631</v>
+        <v>344.8026850520787</v>
       </c>
       <c r="GJ3" t="n">
-        <v>189598.640602182</v>
+        <v>189598.6406020405</v>
       </c>
       <c r="GK3" t="n">
-        <v>5.274299419151486e-06</v>
+        <v>5.274299419155421e-06</v>
       </c>
       <c r="GL3" t="n">
-        <v>135188.4382787002</v>
+        <v>135188.4382786004</v>
       </c>
       <c r="GM3" t="n">
-        <v>7.397082270737026e-06</v>
+        <v>7.397082270742488e-06</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.003395617376242837</v>
+        <v>0.003395617376240516</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.832924604018622e-05</v>
+        <v>1.832924604019585e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.02606727748018426</v>
+        <v>0.02606727748019907</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135251.2391518232</v>
+        <v>135251.2391517229</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594754884331117</v>
+        <v>1.594754884328857</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.594754884331117</v>
+        <v>1.594754884328857</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.3825469472</v>
+        <v>336974.3825470905</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310883888</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.689924012755</v>
+        <v>3788.689924013646</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8560767284869</v>
+        <v>717.8560767284954</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776452400079</v>
+        <v>1006.776452400083</v>
       </c>
       <c r="GY3" t="n">
-        <v>344.8026850519631</v>
+        <v>344.8026850520787</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.999530418657544</v>
+        <v>0.9995304186575469</v>
       </c>
       <c r="HA3" t="n">
-        <v>1.832924604018622e-05</v>
+        <v>1.832924604019585e-05</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.02606727748018426</v>
+        <v>0.02606727748019907</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.8385090192171417</v>
+        <v>0.8385090192222415</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.8385090192171417</v>
+        <v>0.8385090192222415</v>
       </c>
       <c r="HE3" t="n">
-        <v>492461.1635720282</v>
+        <v>492461.1635719006</v>
       </c>
       <c r="HF3" t="n">
-        <v>2.725101775959991</v>
+        <v>2.725101775956016</v>
       </c>
       <c r="HG3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.01611910595754645</v>
+        <v>0.01611910595787592</v>
       </c>
       <c r="HI3" t="n">
-        <v>-1.796499141582827e-07</v>
+        <v>-1.796499141566338e-07</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.01379690142700133</v>
+        <v>0.0137969014269984</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.02510994707363783</v>
+        <v>0.02510994707370795</v>
       </c>
       <c r="HL3" t="n">
         <v>0</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.05502577480827145</v>
+        <v>0.05502577480866811</v>
       </c>
       <c r="HN3" t="n">
-        <v>-8.151604391493095e-13</v>
+        <v>1.269748195475984e-13</v>
       </c>
       <c r="HO3" t="n">
         <v>0</v>
@@ -5082,664 +5082,664 @@
         <v>165.3032</v>
       </c>
       <c r="HQ3" t="n">
-        <v>270.6420302523406</v>
+        <v>270.6420302537853</v>
       </c>
       <c r="HR3" t="n">
-        <v>110.5858724363653</v>
+        <v>110.5858724369556</v>
       </c>
       <c r="HS3" t="n">
-        <v>247.0179616072418</v>
+        <v>247.0179616085604</v>
       </c>
       <c r="HT3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="HU3" t="n">
-        <v>137.5010452579922</v>
+        <v>137.5010452592506</v>
       </c>
       <c r="HV3" t="n">
-        <v>110.5858724363653</v>
+        <v>110.5858724369556</v>
       </c>
       <c r="HW3" t="n">
-        <v>81.7147616072418</v>
+        <v>81.71476160856042</v>
       </c>
       <c r="HX3" t="n">
-        <v>36.46165375008665</v>
+        <v>36.46165375038237</v>
       </c>
       <c r="HY3" t="n">
-        <v>259.05401564561</v>
+        <v>259.0540156452185</v>
       </c>
       <c r="HZ3" t="n">
-        <v>85297.17934086201</v>
+        <v>85297.17933998953</v>
       </c>
       <c r="IA3" t="n">
-        <v>1.147843382022377</v>
+        <v>1.147843382012369</v>
       </c>
       <c r="IB3" t="n">
-        <v>310850.0599629125</v>
+        <v>310850.0599626338</v>
       </c>
       <c r="IC3" t="n">
-        <v>385160.8768189347</v>
+        <v>385160.8768185438</v>
       </c>
       <c r="ID3" t="n">
-        <v>3788.689924007018</v>
+        <v>3788.689924008445</v>
       </c>
       <c r="IE3" t="n">
-        <v>-596314.4620311443</v>
+        <v>-596314.4620304215</v>
       </c>
       <c r="IF3" t="n">
-        <v>716.5233972856976</v>
+        <v>716.5233972856854</v>
       </c>
       <c r="IG3" t="n">
-        <v>1005.186749691049</v>
+        <v>1005.186749691026</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.402866610495698</v>
+        <v>1.40286661049569</v>
       </c>
       <c r="II3" t="n">
-        <v>0.9993220643801711</v>
+        <v>0.9993220643801728</v>
       </c>
       <c r="IJ3" t="n">
-        <v>322.7657950596305</v>
+        <v>322.7657950593862</v>
       </c>
       <c r="IK3" t="n">
-        <v>119579.7506027824</v>
+        <v>119579.7506015588</v>
       </c>
       <c r="IL3" t="n">
-        <v>8.362619883041733e-06</v>
+        <v>8.362619883127307e-06</v>
       </c>
       <c r="IM3" t="n">
-        <v>85239.57282049028</v>
+        <v>85239.57281961852</v>
       </c>
       <c r="IN3" t="n">
-        <v>1.173164021018669e-05</v>
+        <v>1.173164021030667e-05</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.003873658636318374</v>
+        <v>0.003873658636324149</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.650226777996733e-05</v>
+        <v>1.650226777994716e-05</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.02326683852610112</v>
+        <v>0.02326683852607033</v>
       </c>
       <c r="IR3" t="n">
-        <v>85297.17934086201</v>
+        <v>85297.17933998953</v>
       </c>
       <c r="IS3" t="n">
-        <v>1.147843382022377</v>
+        <v>1.147843382012369</v>
       </c>
       <c r="IT3" t="n">
-        <v>1.147843382022377</v>
+        <v>1.147843382012369</v>
       </c>
       <c r="IU3" t="n">
-        <v>310850.0599629125</v>
+        <v>310850.0599626338</v>
       </c>
       <c r="IV3" t="n">
-        <v>385160.8768189347</v>
+        <v>385160.8768185438</v>
       </c>
       <c r="IW3" t="n">
-        <v>3788.689924007018</v>
+        <v>3788.689924008445</v>
       </c>
       <c r="IX3" t="n">
-        <v>716.5233972856976</v>
+        <v>716.5233972856854</v>
       </c>
       <c r="IY3" t="n">
-        <v>1005.186749691049</v>
+        <v>1005.186749691026</v>
       </c>
       <c r="IZ3" t="n">
-        <v>322.7657950596305</v>
+        <v>322.7657950593862</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.9993220643801711</v>
+        <v>0.9993220643801728</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.650226777996733e-05</v>
+        <v>1.650226777994716e-05</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.02326683852610112</v>
+        <v>0.02326683852607033</v>
       </c>
       <c r="JD3" t="n">
-        <v>295.5936268382334</v>
+        <v>295.5936268384318</v>
       </c>
       <c r="JE3" t="n">
-        <v>135251.2391522355</v>
+        <v>135251.2391518833</v>
       </c>
       <c r="JF3" t="n">
-        <v>1.594754884335437</v>
+        <v>1.594754884330208</v>
       </c>
       <c r="JG3" t="n">
-        <v>336974.3825470188</v>
+        <v>336974.3825471621</v>
       </c>
       <c r="JH3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="JI3" t="n">
-        <v>3788.68992401222</v>
+        <v>3788.689924013646</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-698128.1645157536</v>
+        <v>-698128.1645167264</v>
       </c>
       <c r="JK3" t="n">
-        <v>717.8560767284924</v>
+        <v>717.8560767285001</v>
       </c>
       <c r="JL3" t="n">
-        <v>1006.776452400089</v>
+        <v>1006.776452400088</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.402476742954245</v>
+        <v>1.40247674295423</v>
       </c>
       <c r="JN3" t="n">
-        <v>0.9995304186575439</v>
+        <v>0.9995304186575475</v>
       </c>
       <c r="JO3" t="n">
-        <v>344.802685052022</v>
+        <v>344.8026850521371</v>
       </c>
       <c r="JP3" t="n">
-        <v>189598.6406027604</v>
+        <v>189598.6406022653</v>
       </c>
       <c r="JQ3" t="n">
-        <v>5.274299419135397e-06</v>
+        <v>5.27429941914917e-06</v>
       </c>
       <c r="JR3" t="n">
-        <v>135188.4382791123</v>
+        <v>135188.4382787608</v>
       </c>
       <c r="JS3" t="n">
-        <v>7.397082270714476e-06</v>
+        <v>7.397082270733713e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.003395617376241708</v>
+        <v>0.00339561737623937</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.832924604019116e-05</v>
+        <v>1.832924604020073e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.0260672774801919</v>
+        <v>0.02606727748020659</v>
       </c>
       <c r="JW3" t="n">
-        <v>135251.2391522355</v>
+        <v>135251.2391518833</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.594754884335437</v>
+        <v>1.594754884330208</v>
       </c>
       <c r="JY3" t="n">
-        <v>1.594754884335437</v>
+        <v>1.594754884330208</v>
       </c>
       <c r="JZ3" t="n">
-        <v>336974.3825470188</v>
+        <v>336974.3825471621</v>
       </c>
       <c r="KA3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="KB3" t="n">
-        <v>3788.68992401222</v>
+        <v>3788.689924013646</v>
       </c>
       <c r="KC3" t="n">
-        <v>717.8560767284924</v>
+        <v>717.8560767285001</v>
       </c>
       <c r="KD3" t="n">
-        <v>1006.776452400089</v>
+        <v>1006.776452400088</v>
       </c>
       <c r="KE3" t="n">
-        <v>344.802685052022</v>
+        <v>344.8026850521371</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.9995304186575439</v>
+        <v>0.9995304186575475</v>
       </c>
       <c r="KG3" t="n">
-        <v>1.832924604019116e-05</v>
+        <v>1.832924604020073e-05</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.0260672774801919</v>
+        <v>0.02606727748020659</v>
       </c>
       <c r="KI3" t="n">
-        <v>268.4900730225839</v>
+        <v>268.4900730223652</v>
       </c>
       <c r="KJ3" t="n">
-        <v>96649.30964309131</v>
+        <v>96649.30964233773</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.254843564360781</v>
+        <v>1.254843564352017</v>
       </c>
       <c r="KL3" t="n">
-        <v>317593.1427752098</v>
+        <v>317593.1427750546</v>
       </c>
       <c r="KM3" t="n">
-        <v>394614.1455424548</v>
+        <v>394614.145542237</v>
       </c>
       <c r="KN3" t="n">
-        <v>3788.689924013656</v>
+        <v>3788.689924015083</v>
       </c>
       <c r="KO3" t="n">
-        <v>-622611.4888158997</v>
+        <v>-622611.4888156715</v>
       </c>
       <c r="KP3" t="n">
-        <v>716.7966594973157</v>
+        <v>716.7966594973074</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1005.525647585396</v>
+        <v>1005.525647585378</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402804594946863</v>
+        <v>1.402804594946853</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9993663118494281</v>
+        <v>0.9993663118494301</v>
       </c>
       <c r="KT3" t="n">
-        <v>328.5989810060581</v>
+        <v>328.5989810059239</v>
       </c>
       <c r="KU3" t="n">
-        <v>135494.6078529337</v>
+        <v>135494.6078518766</v>
       </c>
       <c r="KV3" t="n">
-        <v>7.380367498353907e-06</v>
+        <v>7.380367498411485e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>96588.36900093428</v>
+        <v>96588.36900018137</v>
       </c>
       <c r="KX3" t="n">
-        <v>1.035321343908734e-05</v>
+        <v>1.035321343916805e-05</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.003737777586169826</v>
+        <v>0.0037377775861728</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.698345421604485e-05</v>
+        <v>1.69834542160337e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02400121973048841</v>
+        <v>0.0240012197304713</v>
       </c>
       <c r="LB3" t="n">
-        <v>96649.30964309131</v>
+        <v>96649.30964233773</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.254843564360781</v>
+        <v>1.254843564352017</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.254843564360781</v>
+        <v>1.254843564352017</v>
       </c>
       <c r="LE3" t="n">
-        <v>317593.1427752098</v>
+        <v>317593.1427750546</v>
       </c>
       <c r="LF3" t="n">
-        <v>394614.1455424548</v>
+        <v>394614.145542237</v>
       </c>
       <c r="LG3" t="n">
-        <v>3788.689924013656</v>
+        <v>3788.689924015083</v>
       </c>
       <c r="LH3" t="n">
-        <v>716.7966594973157</v>
+        <v>716.7966594973074</v>
       </c>
       <c r="LI3" t="n">
-        <v>1005.525647585396</v>
+        <v>1005.525647585378</v>
       </c>
       <c r="LJ3" t="n">
-        <v>328.5989810060581</v>
+        <v>328.5989810059239</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9993663118494281</v>
+        <v>0.9993663118494301</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.698345421604485e-05</v>
+        <v>1.69834542160337e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02400121973048841</v>
+        <v>0.0240012197304713</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.838509019217293</v>
+        <v>0.8385090192224038</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.4260087263354193</v>
+        <v>0.4260087263396406</v>
       </c>
       <c r="LP3" t="n">
-        <v>249240.9600949745</v>
+        <v>249240.960095387</v>
       </c>
       <c r="LQ3" t="n">
-        <v>2.725101775962602</v>
+        <v>2.725101775953389</v>
       </c>
       <c r="LR3" t="n">
-        <v>380951.5715772346</v>
+        <v>380951.5715772173</v>
       </c>
       <c r="LS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="LT3" t="n">
-        <v>141.8033039734942</v>
+        <v>141.803303989599</v>
       </c>
       <c r="LU3" t="n">
-        <v>126.420316369977</v>
+        <v>126.4203163793731</v>
       </c>
       <c r="LV3" t="n">
-        <v>-64.23457500999066</v>
+        <v>-64.23457502705094</v>
       </c>
       <c r="LW3" t="n">
-        <v>-26.93527213554101</v>
+        <v>-26.93527213996669</v>
       </c>
       <c r="LX3" t="n">
-        <v>262.0490155440813</v>
+        <v>262.049015563558</v>
       </c>
       <c r="LY3" t="n">
-        <v>126.420316369977</v>
+        <v>126.4203163793731</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-229.5377750099907</v>
+        <v>-229.5377750270509</v>
       </c>
       <c r="MA3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MB3" t="n">
-        <v>234.1988069753048</v>
+        <v>234.1988069701783</v>
       </c>
       <c r="MC3" t="n">
-        <v>57500.00001005485</v>
+        <v>57500.00000238139</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.8559438387077366</v>
+        <v>0.8559438386122211</v>
       </c>
       <c r="ME3" t="n">
-        <v>293101.9976256763</v>
+        <v>293101.9976220236</v>
       </c>
       <c r="MF3" t="n">
-        <v>360279.3022685435</v>
+        <v>360279.3022634224</v>
       </c>
       <c r="MG3" t="n">
-        <v>3800.836303674777</v>
+        <v>3800.83630369119</v>
       </c>
       <c r="MH3" t="n">
-        <v>-529872.0255605167</v>
+        <v>-529872.0255499968</v>
       </c>
       <c r="MI3" t="n">
-        <v>715.9877717802906</v>
+        <v>715.9877717801929</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1004.421533913911</v>
+        <v>1004.421533913701</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.402847329943129</v>
+        <v>1.402847329943027</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.9992672778161324</v>
+        <v>0.9992672778161613</v>
       </c>
       <c r="MM3" t="n">
-        <v>306.8722353350307</v>
+        <v>306.8722353316698</v>
       </c>
       <c r="MN3" t="n">
-        <v>80604.71816866973</v>
+        <v>80604.71815790939</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.240622165451216e-05</v>
+        <v>1.240622165616833e-05</v>
       </c>
       <c r="MP3" t="n">
-        <v>57457.9403247946</v>
+        <v>57457.94031712841</v>
       </c>
       <c r="MQ3" t="n">
-        <v>1.740403492271501e-05</v>
+        <v>1.74040349250371e-05</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.004283298254284564</v>
+        <v>0.004283298254377365</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.520047292793038e-05</v>
+        <v>1.520047292765615e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.0212909896115736</v>
+        <v>0.02129098961115867</v>
       </c>
       <c r="MU3" t="n">
-        <v>57500.00001005485</v>
+        <v>57500.00000238139</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.8559438387077366</v>
+        <v>0.8559438386122211</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8559438387077366</v>
+        <v>0.8559438386122211</v>
       </c>
       <c r="MX3" t="n">
-        <v>293101.9976256763</v>
+        <v>293101.9976220236</v>
       </c>
       <c r="MY3" t="n">
-        <v>360279.3022685435</v>
+        <v>360279.3022634224</v>
       </c>
       <c r="MZ3" t="n">
-        <v>3800.836303674777</v>
+        <v>3800.83630369119</v>
       </c>
       <c r="NA3" t="n">
-        <v>715.9877717802906</v>
+        <v>715.9877717801929</v>
       </c>
       <c r="NB3" t="n">
-        <v>1004.421533913911</v>
+        <v>1004.421533913701</v>
       </c>
       <c r="NC3" t="n">
-        <v>306.8722353350307</v>
+        <v>306.8722353316698</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.9992672778161324</v>
+        <v>0.9992672778161613</v>
       </c>
       <c r="NE3" t="n">
-        <v>1.520047292793038e-05</v>
+        <v>1.520047292765615e-05</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.0212909896115736</v>
+        <v>0.02129098961115867</v>
       </c>
       <c r="NG3" t="n">
-        <v>244.2393361266967</v>
+        <v>244.2393361240505</v>
       </c>
       <c r="NH3" t="n">
-        <v>66574.95603885804</v>
+        <v>66574.9560325435</v>
       </c>
       <c r="NI3" t="n">
-        <v>0.9502656065613893</v>
+        <v>0.9502656064815229</v>
       </c>
       <c r="NJ3" t="n">
-        <v>300274.0772768103</v>
+        <v>300274.0772749304</v>
       </c>
       <c r="NK3" t="n">
-        <v>370333.3907773428</v>
+        <v>370333.3907747061</v>
       </c>
       <c r="NL3" t="n">
-        <v>3800.836303693186</v>
+        <v>3800.836303709597</v>
       </c>
       <c r="NM3" t="n">
-        <v>-557980.3447629284</v>
+        <v>-557980.344759516</v>
       </c>
       <c r="NN3" t="n">
-        <v>716.167817183467</v>
+        <v>716.1678171833986</v>
       </c>
       <c r="NO3" t="n">
-        <v>1004.666760708895</v>
+        <v>1004.666760708727</v>
       </c>
       <c r="NP3" t="n">
-        <v>1.402837067797925</v>
+        <v>1.402837067797824</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.9992957411826787</v>
+        <v>0.9992957411827104</v>
       </c>
       <c r="NR3" t="n">
-        <v>313.3891327018255</v>
+        <v>313.3891327001264</v>
       </c>
       <c r="NS3" t="n">
-        <v>93328.19702123477</v>
+        <v>93328.19701237891</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.071487537440022e-05</v>
+        <v>1.071487537541695e-05</v>
       </c>
       <c r="NU3" t="n">
-        <v>66528.18004569468</v>
+        <v>66528.18003938666</v>
       </c>
       <c r="NV3" t="n">
-        <v>1.50312243520438e-05</v>
+        <v>1.503122435346902e-05</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.004107560719992757</v>
+        <v>0.004107560720036418</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.573224277697056e-05</v>
+        <v>1.573224277683093e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.02209591450374801</v>
+        <v>0.02209591450353572</v>
       </c>
       <c r="NZ3" t="n">
-        <v>66574.95603885804</v>
+        <v>66574.9560325435</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.9502656065613893</v>
+        <v>0.9502656064815229</v>
       </c>
       <c r="OB3" t="n">
-        <v>0.9502656065613893</v>
+        <v>0.9502656064815229</v>
       </c>
       <c r="OC3" t="n">
-        <v>300274.0772768103</v>
+        <v>300274.0772749304</v>
       </c>
       <c r="OD3" t="n">
-        <v>370333.3907773428</v>
+        <v>370333.3907747061</v>
       </c>
       <c r="OE3" t="n">
-        <v>3800.836303693186</v>
+        <v>3800.836303709597</v>
       </c>
       <c r="OF3" t="n">
-        <v>716.167817183467</v>
+        <v>716.1678171833986</v>
       </c>
       <c r="OG3" t="n">
-        <v>1004.666760708895</v>
+        <v>1004.666760708727</v>
       </c>
       <c r="OH3" t="n">
-        <v>313.3891327018255</v>
+        <v>313.3891327001264</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.9992957411826787</v>
+        <v>0.9992957411827104</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1.573224277697056e-05</v>
+        <v>1.573224277683093e-05</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.02209591450374801</v>
+        <v>0.02209591450353572</v>
       </c>
       <c r="OL3" t="n">
-        <v>268.4787791012397</v>
+        <v>268.4787791012075</v>
       </c>
       <c r="OM3" t="n">
-        <v>92642.51382514436</v>
+        <v>92642.51381982352</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.202840746865737</v>
+        <v>1.202840746796755</v>
       </c>
       <c r="OO3" t="n">
-        <v>317594.3787391233</v>
+        <v>317594.3787391126</v>
       </c>
       <c r="OP3" t="n">
-        <v>394614.145542455</v>
+        <v>394614.1455424378</v>
       </c>
       <c r="OQ3" t="n">
-        <v>3800.836303684508</v>
+        <v>3800.83630370092</v>
       </c>
       <c r="OR3" t="n">
-        <v>-625829.7448344306</v>
+        <v>-625829.7448387316</v>
       </c>
       <c r="OS3" t="n">
-        <v>716.783435593995</v>
+        <v>716.7834355939771</v>
       </c>
       <c r="OT3" t="n">
-        <v>1005.44283808617</v>
+        <v>1005.44283808606</v>
       </c>
       <c r="OU3" t="n">
-        <v>1.402714945906869</v>
+        <v>1.40271494590675</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.9993923139308714</v>
+        <v>0.9993923139309058</v>
       </c>
       <c r="OW3" t="n">
-        <v>328.5900771572306</v>
+        <v>328.5900771572082</v>
       </c>
       <c r="OX3" t="n">
-        <v>129872.4460938114</v>
+        <v>129872.4460863458</v>
       </c>
       <c r="OY3" t="n">
-        <v>7.699862673547125e-06</v>
+        <v>7.699862673989749e-06</v>
       </c>
       <c r="OZ3" t="n">
-        <v>92586.48485408963</v>
+        <v>92586.48484877516</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.080071245361497e-05</v>
+        <v>1.080071245423494e-05</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.003737387596120891</v>
+        <v>0.003737387596120616</v>
       </c>
       <c r="PC3" t="n">
-        <v>1.698227502146085e-05</v>
+        <v>1.698227502145842e-05</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.0239989285658421</v>
+        <v>0.02399892856583774</v>
       </c>
       <c r="PE3" t="n">
-        <v>92642.51382514436</v>
+        <v>92642.51381982352</v>
       </c>
       <c r="PF3" t="n">
-        <v>1.202840746865737</v>
+        <v>1.202840746796755</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.202840746865737</v>
+        <v>1.202840746796755</v>
       </c>
       <c r="PH3" t="n">
-        <v>317594.3787391233</v>
+        <v>317594.3787391126</v>
       </c>
       <c r="PI3" t="n">
-        <v>394614.145542455</v>
+        <v>394614.1455424378</v>
       </c>
       <c r="PJ3" t="n">
-        <v>3800.836303684508</v>
+        <v>3800.83630370092</v>
       </c>
       <c r="PK3" t="n">
-        <v>716.783435593995</v>
+        <v>716.7834355939771</v>
       </c>
       <c r="PL3" t="n">
-        <v>1005.44283808617</v>
+        <v>1005.44283808606</v>
       </c>
       <c r="PM3" t="n">
-        <v>328.5900771572306</v>
+        <v>328.5900771572082</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.9993923139308714</v>
+        <v>0.9993923139309058</v>
       </c>
       <c r="PO3" t="n">
-        <v>1.698227502146085e-05</v>
+        <v>1.698227502145842e-05</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.0239989285658421</v>
+        <v>0.02399892856583774</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.4620923226198</v>
+        <v>0.4620923226773415</v>
       </c>
       <c r="PR3" t="n">
-        <v>0.8539352387419044</v>
+        <v>0.8539352388147251</v>
       </c>
       <c r="PS3" t="n">
-        <v>384543.1803198187</v>
+        <v>384543.1803124258</v>
       </c>
       <c r="PT3" t="n">
-        <v>2.725101776179302</v>
+        <v>2.725101776077747</v>
       </c>
       <c r="PU3" t="n">
-        <v>380951.5715772346</v>
+        <v>380951.5715772173</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02457066441878053</v>
+        <v>0.02457066441896829</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.002422640682319302</v>
+        <v>0.00242264068263393</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.01187960968178385</v>
+        <v>0.01187960968177014</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.03214502245913443</v>
+        <v>0.03214502245925605</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.04299769189354422</v>
+        <v>0.04299769189374122</v>
       </c>
       <c r="QA3" t="n">
-        <v>0.1140156291355623</v>
+        <v>0.1140156291363696</v>
       </c>
       <c r="QB3" t="n">
-        <v>-1.162598489701239e-10</v>
+        <v>5.26367838205033e-12</v>
       </c>
       <c r="QC3" t="n">
         <v>0</v>
@@ -8136,34 +8136,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01611691534486064</v>
+        <v>0.01611691534489195</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.785867205385024e-07</v>
+        <v>-1.785867205538613e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379684642892146</v>
+        <v>0.0137968464289208</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02511126098066513</v>
+        <v>0.02511126098068089</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05502484416772668</v>
+        <v>0.05502484416777308</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.834552037533911e-12</v>
+        <v>-6.856286371981213e-12</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758172563746</v>
+        <v>81.75758172527294</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758172563746</v>
+        <v>81.75758172527294</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8172,10 +8172,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758172563746</v>
+        <v>81.75758172527294</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758172563746</v>
+        <v>81.75758172527294</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8184,97 +8184,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.267618072351</v>
+        <v>292.2676180724806</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394372703</v>
+        <v>132637.8394374762</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096098535</v>
+        <v>1.581790096100289</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834749849</v>
+        <v>334589.2834750779</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2800036772</v>
+        <v>418442.2800038074</v>
       </c>
       <c r="W2" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9625800351</v>
+        <v>-687181.9625803953</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713703948</v>
+        <v>717.7090713704008</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.643209103385</v>
+        <v>1006.643209103392</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574215</v>
+        <v>1.402578355574212</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994973723756383</v>
+        <v>0.9994973723756392</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.8584121221033</v>
+        <v>342.8584121221794</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4165863963</v>
+        <v>185942.416586685</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054407227e-06</v>
+        <v>5.378009054398878e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565721568</v>
+        <v>132571.8565723628</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.543079095793725e-06</v>
+        <v>7.543079095782003e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038601706</v>
+        <v>0.003434455038600185</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725856045957e-05</v>
+        <v>1.816725856046591e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791190126254</v>
+        <v>0.02581791190127231</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394372703</v>
+        <v>132637.8394374762</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096098535</v>
+        <v>1.581790096100289</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096098535</v>
+        <v>1.581790096100289</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834749849</v>
+        <v>334589.2834750779</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2800036772</v>
+        <v>418442.2800038074</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713703948</v>
+        <v>717.7090713704008</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.643209103385</v>
+        <v>1006.643209103392</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.8584121221033</v>
+        <v>342.8584121221794</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994973723756383</v>
+        <v>0.9994973723756392</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725856045957e-05</v>
+        <v>1.816725856046591e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791190126254</v>
+        <v>0.02581791190127231</v>
       </c>
       <c r="AW2" t="n">
         <v>295.5999999999887</v>
@@ -8463,16 +8463,16 @@
         <v>0.02606863419705883</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2384587305867848</v>
+        <v>0.2384587305856687</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.2384587305867848</v>
+        <v>0.2384587305856687</v>
       </c>
       <c r="DI2" t="n">
-        <v>186219.5323223402</v>
+        <v>186219.5323216513</v>
       </c>
       <c r="DJ2" t="n">
-        <v>2.776369934752311</v>
+        <v>2.77636993474301</v>
       </c>
       <c r="DK2" t="n">
         <v>421784.4310885898</v>
@@ -8481,340 +8481,340 @@
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>309.378079018821</v>
+        <v>309.3780767509163</v>
       </c>
       <c r="DN2" t="n">
-        <v>126.4136422161915</v>
+        <v>126.4136412895128</v>
       </c>
       <c r="DO2" t="n">
-        <v>282.3727799186964</v>
+        <v>282.3727778487548</v>
       </c>
       <c r="DP2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ2" t="n">
-        <v>309.378079018821</v>
+        <v>309.3780767509163</v>
       </c>
       <c r="DR2" t="n">
-        <v>126.4136422161915</v>
+        <v>126.4136412895128</v>
       </c>
       <c r="DS2" t="n">
-        <v>282.3727799186964</v>
+        <v>282.3727778487548</v>
       </c>
       <c r="DT2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU2" t="n">
-        <v>247.8365042626608</v>
+        <v>247.8365049631574</v>
       </c>
       <c r="DV2" t="n">
-        <v>72726.23714596899</v>
+        <v>72726.23788471294</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.023014663477525</v>
+        <v>1.023014670975362</v>
       </c>
       <c r="DX2" t="n">
-        <v>302836.9112864496</v>
+        <v>302836.9117867955</v>
       </c>
       <c r="DY2" t="n">
-        <v>373927.033200002</v>
+        <v>373927.0339014416</v>
       </c>
       <c r="DZ2" t="n">
-        <v>3790.093061409626</v>
+        <v>3790.093061326164</v>
       </c>
       <c r="EA2" t="n">
-        <v>-565396.3819699261</v>
+        <v>-565396.3839027485</v>
       </c>
       <c r="EB2" t="n">
-        <v>716.2529430413339</v>
+        <v>716.252943056452</v>
       </c>
       <c r="EC2" t="n">
-        <v>1004.831581183549</v>
+        <v>1004.831581203881</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.40290045708833</v>
+        <v>1.402900457087106</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.9992812858982424</v>
+        <v>0.9992812859005105</v>
       </c>
       <c r="EF2" t="n">
-        <v>315.6911151185152</v>
+        <v>315.6911155652415</v>
       </c>
       <c r="EG2" t="n">
-        <v>101954.5417836378</v>
+        <v>101954.5428194252</v>
       </c>
       <c r="EH2" t="n">
-        <v>9.808292818598934e-06</v>
+        <v>9.808292718953485e-06</v>
       </c>
       <c r="EI2" t="n">
-        <v>72674.10974777273</v>
+        <v>72674.11048615471</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.376005847846863e-05</v>
+        <v>1.376005833866397e-05</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.004048559456097393</v>
+        <v>0.004048559444681673</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.592113113162236e-05</v>
+        <v>1.592113116822725e-05</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0223828836817199</v>
+        <v>0.0223828837372945</v>
       </c>
       <c r="EN2" t="n">
-        <v>72726.23714596899</v>
+        <v>72726.23788471294</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.023014663477525</v>
+        <v>1.023014670975362</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.023014663477525</v>
+        <v>1.023014670975362</v>
       </c>
       <c r="EQ2" t="n">
-        <v>302836.9112864496</v>
+        <v>302836.9117867955</v>
       </c>
       <c r="ER2" t="n">
-        <v>373927.033200002</v>
+        <v>373927.0339014416</v>
       </c>
       <c r="ES2" t="n">
-        <v>3790.093061409626</v>
+        <v>3790.093061326164</v>
       </c>
       <c r="ET2" t="n">
-        <v>716.2529430413339</v>
+        <v>716.252943056452</v>
       </c>
       <c r="EU2" t="n">
-        <v>1004.831581183549</v>
+        <v>1004.831581203881</v>
       </c>
       <c r="EV2" t="n">
-        <v>315.6911151185152</v>
+        <v>315.6911155652415</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.9992812858982424</v>
+        <v>0.9992812859005105</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.592113113162236e-05</v>
+        <v>1.592113116822725e-05</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0223828836817199</v>
+        <v>0.0223828837372945</v>
       </c>
       <c r="EZ2" t="n">
-        <v>295.5920968648488</v>
+        <v>295.5920968650399</v>
       </c>
       <c r="FA2" t="n">
-        <v>134591.4165170019</v>
+        <v>134591.4165563135</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.586979526767208</v>
+        <v>1.586979527229919</v>
       </c>
       <c r="FC2" t="n">
-        <v>336974.6309324565</v>
+        <v>336974.6309325134</v>
       </c>
       <c r="FD2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="FE2" t="n">
-        <v>3790.093061419275</v>
+        <v>3790.093061335813</v>
       </c>
       <c r="FF2" t="n">
-        <v>-698537.124249248</v>
+        <v>-698537.1242252012</v>
       </c>
       <c r="FG2" t="n">
-        <v>717.8543580607118</v>
+        <v>717.8543580608188</v>
       </c>
       <c r="FH2" t="n">
-        <v>1006.765618720045</v>
+        <v>1006.765618720694</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.402465008974563</v>
+        <v>1.402465008975257</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.9995326648235461</v>
+        <v>0.9995326648234134</v>
       </c>
       <c r="FK2" t="n">
-        <v>344.8011163634602</v>
+        <v>344.8011163636118</v>
       </c>
       <c r="FL2" t="n">
-        <v>188672.520206983</v>
+        <v>188672.5202621596</v>
       </c>
       <c r="FM2" t="n">
-        <v>5.300188914119294e-06</v>
+        <v>5.300188912569274e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>134529.2174846732</v>
+        <v>134529.2175239491</v>
       </c>
       <c r="FO2" t="n">
-        <v>7.433329493007194e-06</v>
+        <v>7.433329490837026e-06</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.00339557384359814</v>
+        <v>0.003395573843599572</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.832907665246043e-05</v>
+        <v>1.832907665247537e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.02606695184417115</v>
+        <v>0.02606695184419801</v>
       </c>
       <c r="FS2" t="n">
-        <v>134591.4165170019</v>
+        <v>134591.4165563135</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.586979526767208</v>
+        <v>1.586979527229919</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.586979526767208</v>
+        <v>1.586979527229919</v>
       </c>
       <c r="FV2" t="n">
-        <v>336974.6309324565</v>
+        <v>336974.6309325134</v>
       </c>
       <c r="FW2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="FX2" t="n">
-        <v>3790.093061419275</v>
+        <v>3790.093061335813</v>
       </c>
       <c r="FY2" t="n">
-        <v>717.8543580607118</v>
+        <v>717.8543580608188</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1006.765618720045</v>
+        <v>1006.765618720694</v>
       </c>
       <c r="GA2" t="n">
-        <v>344.8011163634602</v>
+        <v>344.8011163636118</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.9995326648235461</v>
+        <v>0.9995326648234134</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.832907665246043e-05</v>
+        <v>1.832907665247537e-05</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.02606695184417115</v>
+        <v>0.02606695184419801</v>
       </c>
       <c r="GE2" t="n">
-        <v>295.5920968648488</v>
+        <v>295.5920968650399</v>
       </c>
       <c r="GF2" t="n">
-        <v>134591.4165170019</v>
+        <v>134591.4165563135</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.586979526767208</v>
+        <v>1.586979527229919</v>
       </c>
       <c r="GH2" t="n">
-        <v>336974.6309324565</v>
+        <v>336974.6309325134</v>
       </c>
       <c r="GI2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="GJ2" t="n">
-        <v>3790.093061419275</v>
+        <v>3790.093061335813</v>
       </c>
       <c r="GK2" t="n">
-        <v>-698537.124249248</v>
+        <v>-698537.1242252012</v>
       </c>
       <c r="GL2" t="n">
-        <v>717.8543580607118</v>
+        <v>717.8543580608188</v>
       </c>
       <c r="GM2" t="n">
-        <v>1006.765618720045</v>
+        <v>1006.765618720694</v>
       </c>
       <c r="GN2" t="n">
-        <v>1.402465008974563</v>
+        <v>1.402465008975257</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.9995326648235461</v>
+        <v>0.9995326648234134</v>
       </c>
       <c r="GP2" t="n">
-        <v>344.8011163634602</v>
+        <v>344.8011163636118</v>
       </c>
       <c r="GQ2" t="n">
-        <v>188672.520206983</v>
+        <v>188672.5202621596</v>
       </c>
       <c r="GR2" t="n">
-        <v>5.300188914119294e-06</v>
+        <v>5.300188912569274e-06</v>
       </c>
       <c r="GS2" t="n">
-        <v>134529.2174846732</v>
+        <v>134529.2175239491</v>
       </c>
       <c r="GT2" t="n">
-        <v>7.433329493007194e-06</v>
+        <v>7.433329490837026e-06</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.00339557384359814</v>
+        <v>0.003395573843599572</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.832907665246043e-05</v>
+        <v>1.832907665247537e-05</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.02606695184417115</v>
+        <v>0.02606695184419801</v>
       </c>
       <c r="GX2" t="n">
-        <v>134591.4165170019</v>
+        <v>134591.4165563135</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.586979526767208</v>
+        <v>1.586979527229919</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.586979526767208</v>
+        <v>1.586979527229919</v>
       </c>
       <c r="HA2" t="n">
-        <v>336974.6309324565</v>
+        <v>336974.6309325134</v>
       </c>
       <c r="HB2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="HC2" t="n">
-        <v>3790.093061419275</v>
+        <v>3790.093061335813</v>
       </c>
       <c r="HD2" t="n">
-        <v>717.8543580607118</v>
+        <v>717.8543580608188</v>
       </c>
       <c r="HE2" t="n">
-        <v>1006.765618720045</v>
+        <v>1006.765618720694</v>
       </c>
       <c r="HF2" t="n">
-        <v>344.8011163634602</v>
+        <v>344.8011163636118</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.9995326648235461</v>
+        <v>0.9995326648234134</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832907665246043e-05</v>
+        <v>1.832907665247537e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606695184417115</v>
+        <v>0.02606695184419801</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.01619337327097643</v>
+        <v>0.01619337326453411</v>
       </c>
       <c r="HK2" t="n">
-        <v>-1.972005781187921e-07</v>
+        <v>-1.972005773539037e-07</v>
       </c>
       <c r="HL2" t="n">
-        <v>0.01379727827868044</v>
+        <v>0.01379727827868037</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.02510093007317935</v>
+        <v>0.02510093007318111</v>
       </c>
       <c r="HN2" t="n">
         <v>0</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.0550913844222581</v>
+        <v>0.05509138441581823</v>
       </c>
       <c r="HP2" t="n">
-        <v>5.578242022324931e-06</v>
+        <v>5.578235935568832e-06</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.980002490417495</v>
+        <v>0.9800024818467832</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.980002490417495</v>
+        <v>0.9800024818467832</v>
       </c>
       <c r="HS2" t="n">
-        <v>520038.1654819833</v>
+        <v>520038.1642856312</v>
       </c>
       <c r="HT2" t="n">
-        <v>2.77636299177763</v>
+        <v>2.776362991773826</v>
       </c>
       <c r="HU2" t="n">
         <v>421784.4310885898</v>
@@ -8823,733 +8823,733 @@
         <v>0</v>
       </c>
       <c r="HW2" t="n">
-        <v>1470.594965815253</v>
+        <v>1470.5949655156</v>
       </c>
       <c r="HX2" t="n">
         <v>0</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.006614956778735219</v>
+        <v>0.006614956773487932</v>
       </c>
       <c r="HZ2" t="n">
-        <v>-7.329835842284577e-08</v>
+        <v>-7.329835837086364e-08</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.010306556961572</v>
+        <v>0.01030655695338281</v>
       </c>
       <c r="IB2" t="n">
         <v>0</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.005662717763127391</v>
+        <v>0.005662717758624194</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.02417559754297607</v>
+        <v>0.02417559754029134</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.002020493328471936</v>
+        <v>0.002020493326765246</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.01190512760898596</v>
+        <v>0.01190512760911613</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.0319229788345199</v>
+        <v>0.03192297883338758</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.04262771182568584</v>
+        <v>0.04262771182379295</v>
       </c>
       <c r="II2" t="n">
-        <v>0.1126519091406397</v>
+        <v>0.1126519091333532</v>
       </c>
       <c r="IJ2" t="n">
-        <v>-6.585029743710891e-11</v>
+        <v>9.273097567596977e-11</v>
       </c>
       <c r="IK2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL2" t="n">
-        <v>274.2435955723379</v>
+        <v>274.2435955756441</v>
       </c>
       <c r="IM2" t="n">
-        <v>112.0574925046788</v>
+        <v>112.0574925060297</v>
       </c>
       <c r="IN2" t="n">
-        <v>250.3051499390452</v>
+        <v>250.3051499420628</v>
       </c>
       <c r="IO2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IP2" t="n">
-        <v>140.649255667693</v>
+        <v>140.6492556705931</v>
       </c>
       <c r="IQ2" t="n">
-        <v>112.0574925046788</v>
+        <v>112.0574925060297</v>
       </c>
       <c r="IR2" t="n">
-        <v>85.00194993904515</v>
+        <v>85.00194994206279</v>
       </c>
       <c r="IS2" t="n">
-        <v>37.18237546999666</v>
+        <v>37.18237547064346</v>
       </c>
       <c r="IT2" t="n">
-        <v>258.0745276027239</v>
+        <v>258.0745276015193</v>
       </c>
       <c r="IU2" t="n">
-        <v>84204.24304608343</v>
+        <v>84204.24304514931</v>
       </c>
       <c r="IV2" t="n">
-        <v>1.137441480273077</v>
+        <v>1.137441480265779</v>
       </c>
       <c r="IW2" t="n">
-        <v>310150.1395438543</v>
+        <v>310150.1395429925</v>
       </c>
       <c r="IX2" t="n">
-        <v>384179.656232368</v>
+        <v>384179.6562311599</v>
       </c>
       <c r="IY2" t="n">
-        <v>3788.594327642163</v>
+        <v>3788.594327640664</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-593560.0351522428</v>
+        <v>-593560.0351484999</v>
       </c>
       <c r="JA2" t="n">
-        <v>716.4976739310773</v>
+        <v>716.4976739310475</v>
       </c>
       <c r="JB2" t="n">
-        <v>1005.154781941235</v>
+        <v>1005.154781941206</v>
       </c>
       <c r="JC2" t="n">
-        <v>1.402872358854196</v>
+        <v>1.402872358854213</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.9993176152848481</v>
+        <v>0.9993176152848393</v>
       </c>
       <c r="JE2" t="n">
-        <v>322.1542423950629</v>
+        <v>322.1542423943101</v>
       </c>
       <c r="JF2" t="n">
-        <v>118047.4939547973</v>
+        <v>118047.4939534882</v>
       </c>
       <c r="JG2" t="n">
-        <v>8.471166701623667e-06</v>
+        <v>8.471166701717609e-06</v>
       </c>
       <c r="JH2" t="n">
-        <v>84146.99541960702</v>
+        <v>84146.99541867281</v>
       </c>
       <c r="JI2" t="n">
-        <v>1.188396561295391e-05</v>
+        <v>1.188396561308585e-05</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.003888335960614115</v>
+        <v>0.0038883359606323</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.645193061139255e-05</v>
+        <v>1.645193061133066e-05</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.02319014930021425</v>
+        <v>0.02319014930012003</v>
       </c>
       <c r="JM2" t="n">
-        <v>84204.24304608343</v>
+        <v>84204.24304514931</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.137441480273077</v>
+        <v>1.137441480265779</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.137441480273077</v>
+        <v>1.137441480265779</v>
       </c>
       <c r="JP2" t="n">
-        <v>310150.1395438543</v>
+        <v>310150.1395429925</v>
       </c>
       <c r="JQ2" t="n">
-        <v>384179.656232368</v>
+        <v>384179.6562311599</v>
       </c>
       <c r="JR2" t="n">
-        <v>3788.594327642163</v>
+        <v>3788.594327640664</v>
       </c>
       <c r="JS2" t="n">
-        <v>716.4976739310773</v>
+        <v>716.4976739310475</v>
       </c>
       <c r="JT2" t="n">
-        <v>1005.154781941235</v>
+        <v>1005.154781941206</v>
       </c>
       <c r="JU2" t="n">
-        <v>322.1542423950629</v>
+        <v>322.1542423943101</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.9993176152848481</v>
+        <v>0.9993176152848393</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.645193061139255e-05</v>
+        <v>1.645193061133066e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02319014930021425</v>
+        <v>0.02319014930012003</v>
       </c>
       <c r="JY2" t="n">
-        <v>295.5937313468971</v>
+        <v>295.5937313464985</v>
       </c>
       <c r="JZ2" t="n">
-        <v>135296.310731576</v>
+        <v>135296.3107316423</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.595286006671392</v>
+        <v>1.595286006674332</v>
       </c>
       <c r="KB2" t="n">
-        <v>336974.3655795747</v>
+        <v>336974.3655792882</v>
       </c>
       <c r="KC2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.431088289</v>
       </c>
       <c r="KD2" t="n">
-        <v>3788.594327646968</v>
+        <v>3788.59432764547</v>
       </c>
       <c r="KE2" t="n">
-        <v>-698100.3027801658</v>
+        <v>-698100.3027786145</v>
       </c>
       <c r="KF2" t="n">
-        <v>717.8561941266273</v>
+        <v>717.8561941266101</v>
       </c>
       <c r="KG2" t="n">
-        <v>1006.777192427236</v>
+        <v>1006.777192427226</v>
       </c>
       <c r="KH2" t="n">
-        <v>1.40247754447828</v>
+        <v>1.402477544478299</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.9995302652409205</v>
+        <v>0.9995302652409153</v>
       </c>
       <c r="KJ2" t="n">
-        <v>344.8027922116118</v>
+        <v>344.8027922113799</v>
       </c>
       <c r="KK2" t="n">
-        <v>189661.9030367864</v>
+        <v>189661.9030368809</v>
       </c>
       <c r="KL2" t="n">
-        <v>5.272540156923567e-06</v>
+        <v>5.272540156920939e-06</v>
       </c>
       <c r="KM2" t="n">
-        <v>135233.4686451898</v>
+        <v>135233.4686452554</v>
       </c>
       <c r="KN2" t="n">
-        <v>7.394619172445292e-06</v>
+        <v>7.394619172441709e-06</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.003395620349780861</v>
+        <v>0.003395620349785498</v>
       </c>
       <c r="KP2" t="n">
-        <v>1.832925761100105e-05</v>
+        <v>1.832925761098174e-05</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.02606729972445553</v>
+        <v>0.02606729972442582</v>
       </c>
       <c r="KR2" t="n">
-        <v>135296.310731576</v>
+        <v>135296.3107316423</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.595286006671392</v>
+        <v>1.595286006674332</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595286006671392</v>
+        <v>1.595286006674332</v>
       </c>
       <c r="KU2" t="n">
-        <v>336974.3655795747</v>
+        <v>336974.3655792882</v>
       </c>
       <c r="KV2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.431088289</v>
       </c>
       <c r="KW2" t="n">
-        <v>3788.594327646968</v>
+        <v>3788.59432764547</v>
       </c>
       <c r="KX2" t="n">
-        <v>717.8561941266273</v>
+        <v>717.8561941266101</v>
       </c>
       <c r="KY2" t="n">
-        <v>1006.777192427236</v>
+        <v>1006.777192427226</v>
       </c>
       <c r="KZ2" t="n">
-        <v>344.8027922116118</v>
+        <v>344.8027922113799</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.9995302652409205</v>
+        <v>0.9995302652409153</v>
       </c>
       <c r="LB2" t="n">
-        <v>1.832925761100105e-05</v>
+        <v>1.832925761098174e-05</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.02606729972445553</v>
+        <v>0.02606729972442582</v>
       </c>
       <c r="LD2" t="n">
-        <v>267.947840514908</v>
+        <v>267.9478405139109</v>
       </c>
       <c r="LE2" t="n">
-        <v>96001.14969354204</v>
+        <v>96001.1496927938</v>
       </c>
       <c r="LF2" t="n">
-        <v>1.248954192579351</v>
+        <v>1.248954192574275</v>
       </c>
       <c r="LG2" t="n">
-        <v>317205.5340563912</v>
+        <v>317205.5340556775</v>
       </c>
       <c r="LH2" t="n">
-        <v>394070.7627925065</v>
+        <v>394070.7627915061</v>
       </c>
       <c r="LI2" t="n">
-        <v>3788.594327648438</v>
+        <v>3788.594327646941</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-621074.9058879223</v>
+        <v>-621074.9058847437</v>
       </c>
       <c r="LK2" t="n">
-        <v>716.7798217230777</v>
+        <v>716.7798217230484</v>
       </c>
       <c r="LL2" t="n">
-        <v>1005.505580238942</v>
+        <v>1005.505580238915</v>
       </c>
       <c r="LM2" t="n">
-        <v>1.402809551504662</v>
+        <v>1.402809551504681</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.9993633826738427</v>
+        <v>0.9993633826738344</v>
       </c>
       <c r="LO2" t="n">
-        <v>328.2666125074708</v>
+        <v>328.2666125068595</v>
       </c>
       <c r="LP2" t="n">
-        <v>134586.0159796088</v>
+        <v>134586.0159785606</v>
       </c>
       <c r="LQ2" t="n">
-        <v>7.43019245143203e-06</v>
+        <v>7.430192451489901e-06</v>
       </c>
       <c r="LR2" t="n">
-        <v>95940.3333369459</v>
+        <v>95940.33333619735</v>
       </c>
       <c r="LS2" t="n">
-        <v>1.042314494038669e-05</v>
+        <v>1.042314494046801e-05</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.003745331631125763</v>
+        <v>0.003745331631139743</v>
       </c>
       <c r="LU2" t="n">
-        <v>1.695599162244873e-05</v>
+        <v>1.695599162239828e-05</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.02395924904456215</v>
+        <v>0.02395924904448511</v>
       </c>
       <c r="LW2" t="n">
-        <v>96001.14969354204</v>
+        <v>96001.1496927938</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.248954192579351</v>
+        <v>1.248954192574275</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.248954192579351</v>
+        <v>1.248954192574275</v>
       </c>
       <c r="LZ2" t="n">
-        <v>317205.5340563912</v>
+        <v>317205.5340556775</v>
       </c>
       <c r="MA2" t="n">
-        <v>394070.7627925065</v>
+        <v>394070.7627915061</v>
       </c>
       <c r="MB2" t="n">
-        <v>3788.594327648438</v>
+        <v>3788.594327646941</v>
       </c>
       <c r="MC2" t="n">
-        <v>716.7798217230777</v>
+        <v>716.7798217230484</v>
       </c>
       <c r="MD2" t="n">
-        <v>1005.505580238942</v>
+        <v>1005.505580238915</v>
       </c>
       <c r="ME2" t="n">
-        <v>328.2666125074708</v>
+        <v>328.2666125068595</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.9993633826738427</v>
+        <v>0.9993633826738344</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.695599162244873e-05</v>
+        <v>1.695599162239828e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02395924904456215</v>
+        <v>0.02395924904448511</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.8512804100714855</v>
+        <v>0.8512804100837376</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.4365897981725554</v>
+        <v>0.4365897981825777</v>
       </c>
       <c r="MK2" t="n">
-        <v>253410.1713073188</v>
+        <v>253410.1713118712</v>
       </c>
       <c r="ML2" t="n">
-        <v>2.736342184763344</v>
+        <v>2.736342184778776</v>
       </c>
       <c r="MM2" t="n">
-        <v>380408.1888272862</v>
+        <v>380408.1888264862</v>
       </c>
       <c r="MN2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO2" t="n">
-        <v>165.2430910428438</v>
+        <v>165.2430900733487</v>
       </c>
       <c r="MP2" t="n">
-        <v>139.6735917648192</v>
+        <v>139.6735912308008</v>
       </c>
       <c r="MQ2" t="n">
-        <v>-88.29817042786436</v>
+        <v>-88.29816945826232</v>
       </c>
       <c r="MR2" t="n">
-        <v>-32.3000559974791</v>
+        <v>-32.30005581224817</v>
       </c>
       <c r="MS2" t="n">
-        <v>289.5209272563492</v>
+        <v>289.5209261494148</v>
       </c>
       <c r="MT2" t="n">
-        <v>139.6735917648192</v>
+        <v>139.6735912308008</v>
       </c>
       <c r="MU2" t="n">
-        <v>-253.6013704278644</v>
+        <v>-253.6013694582623</v>
       </c>
       <c r="MV2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW2" t="n">
-        <v>226.0874538718536</v>
+        <v>226.0874541913191</v>
       </c>
       <c r="MX2" t="n">
-        <v>50447.70649346116</v>
+        <v>50447.70675863189</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.7779155771189852</v>
+        <v>0.7779155801084677</v>
       </c>
       <c r="MZ2" t="n">
-        <v>287309.7316976371</v>
+        <v>287309.7319257586</v>
       </c>
       <c r="NA2" t="n">
-        <v>352159.5791326179</v>
+        <v>352159.5794523988</v>
       </c>
       <c r="NB2" t="n">
-        <v>3803.083408299498</v>
+        <v>3803.083408206205</v>
       </c>
       <c r="NC2" t="n">
-        <v>-507669.8655121067</v>
+        <v>-507669.8663861874</v>
       </c>
       <c r="ND2" t="n">
-        <v>715.8671532936011</v>
+        <v>715.8671532979193</v>
       </c>
       <c r="NE2" t="n">
-        <v>1004.238516665172</v>
+        <v>1004.23851667194</v>
       </c>
       <c r="NF2" t="n">
-        <v>1.40282804155047</v>
+        <v>1.402828041551462</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.9992548518767991</v>
+        <v>0.9992548518771903</v>
       </c>
       <c r="NH2" t="n">
-        <v>301.5053607941951</v>
+        <v>301.5053610074377</v>
       </c>
       <c r="NI2" t="n">
-        <v>70716.79095044208</v>
+        <v>70716.7913222327</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1.414091316305337e-05</v>
+        <v>1.41409130887081e-05</v>
       </c>
       <c r="NK2" t="n">
-        <v>50410.1635096221</v>
+        <v>50410.16377461576</v>
       </c>
       <c r="NL2" t="n">
-        <v>1.983726951826141e-05</v>
+        <v>1.983726941398183e-05</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.00443654626520792</v>
+        <v>0.004436546258956089</v>
       </c>
       <c r="NN2" t="n">
-        <v>1.476448182045088e-05</v>
+        <v>1.476448183773642e-05</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.02063302356955163</v>
+        <v>0.0206330235956011</v>
       </c>
       <c r="NP2" t="n">
-        <v>50447.70649346116</v>
+        <v>50447.70675863189</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7779155771189852</v>
+        <v>0.7779155801084677</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.7779155771189852</v>
+        <v>0.7779155801084677</v>
       </c>
       <c r="NS2" t="n">
-        <v>287309.7316976371</v>
+        <v>287309.7319257586</v>
       </c>
       <c r="NT2" t="n">
-        <v>352159.5791326179</v>
+        <v>352159.5794523988</v>
       </c>
       <c r="NU2" t="n">
-        <v>3803.083408299498</v>
+        <v>3803.083408206205</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8671532936011</v>
+        <v>715.8671532979193</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.238516665172</v>
+        <v>1004.23851667194</v>
       </c>
       <c r="NX2" t="n">
-        <v>301.5053607941951</v>
+        <v>301.5053610074377</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992548518767991</v>
+        <v>0.9992548518771903</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.476448182045088e-05</v>
+        <v>1.476448183773642e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.02063302356955163</v>
+        <v>0.0206330235956011</v>
       </c>
       <c r="OB2" t="n">
-        <v>239.7227566110116</v>
+        <v>239.7227567704425</v>
       </c>
       <c r="OC2" t="n">
-        <v>61889.88277961584</v>
+        <v>61889.88294337221</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9000437627897655</v>
+        <v>0.9000437645724321</v>
       </c>
       <c r="OE2" t="n">
-        <v>297049.0259120081</v>
+        <v>297049.0260258394</v>
       </c>
       <c r="OF2" t="n">
-        <v>365812.2187014149</v>
+        <v>365812.2188609936</v>
       </c>
       <c r="OG2" t="n">
-        <v>3803.08340829364</v>
+        <v>3803.083408200348</v>
       </c>
       <c r="OH2" t="n">
-        <v>-545873.4195563378</v>
+        <v>-545873.419980724</v>
       </c>
       <c r="OI2" t="n">
-        <v>716.0798178230535</v>
+        <v>716.0798178260291</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1004.538266863622</v>
+        <v>1004.538266868083</v>
       </c>
       <c r="OK2" t="n">
-        <v>1.402830022381454</v>
+        <v>1.402830022381854</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.9992876966406612</v>
+        <v>0.9992876966408841</v>
       </c>
       <c r="OM2" t="n">
-        <v>310.4746355178585</v>
+        <v>310.474635621216</v>
       </c>
       <c r="ON2" t="n">
-        <v>86759.2678621598</v>
+        <v>86759.26809176362</v>
       </c>
       <c r="OO2" t="n">
-        <v>1.152614613563552e-05</v>
+        <v>1.152614610513218e-05</v>
       </c>
       <c r="OP2" t="n">
-        <v>61845.88758292803</v>
+        <v>61845.88774658224</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1.616922384142548e-05</v>
+        <v>1.61692237986391e-05</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.00418469105327312</v>
+        <v>0.004184691050499859</v>
       </c>
       <c r="OS2" t="n">
-        <v>1.54940091290973e-05</v>
+        <v>1.549400913753719e-05</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.02173488988322292</v>
+        <v>0.02173488989600351</v>
       </c>
       <c r="OU2" t="n">
-        <v>61889.88277961584</v>
+        <v>61889.88294337221</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.9000437627897655</v>
+        <v>0.9000437645724321</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.9000437627897655</v>
+        <v>0.9000437645724321</v>
       </c>
       <c r="OX2" t="n">
-        <v>297049.0259120081</v>
+        <v>297049.0260258394</v>
       </c>
       <c r="OY2" t="n">
-        <v>365812.2187014149</v>
+        <v>365812.2188609936</v>
       </c>
       <c r="OZ2" t="n">
-        <v>3803.08340829364</v>
+        <v>3803.083408200348</v>
       </c>
       <c r="PA2" t="n">
-        <v>716.0798178230535</v>
+        <v>716.0798178260291</v>
       </c>
       <c r="PB2" t="n">
-        <v>1004.538266863622</v>
+        <v>1004.538266868083</v>
       </c>
       <c r="PC2" t="n">
-        <v>310.4746355178585</v>
+        <v>310.474635621216</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9992876966406612</v>
+        <v>0.9992876966408841</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.54940091290973e-05</v>
+        <v>1.549400913753719e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.02173488988322292</v>
+        <v>0.02173488989600351</v>
       </c>
       <c r="PG2" t="n">
-        <v>267.9344593807356</v>
+        <v>267.9344593801213</v>
       </c>
       <c r="PH2" t="n">
-        <v>91272.8016632488</v>
+        <v>91272.80169209998</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.187461827521414</v>
+        <v>1.187461827899727</v>
       </c>
       <c r="PJ2" t="n">
-        <v>317206.9853236498</v>
+        <v>317206.9853231416</v>
       </c>
       <c r="PK2" t="n">
-        <v>394070.7627924063</v>
+        <v>394070.7627917065</v>
       </c>
       <c r="PL2" t="n">
-        <v>3803.083408288813</v>
+        <v>3803.083408195522</v>
       </c>
       <c r="PM2" t="n">
-        <v>-624906.3341873024</v>
+        <v>-624906.3341606696</v>
       </c>
       <c r="PN2" t="n">
-        <v>716.7641341354152</v>
+        <v>716.7641341354922</v>
       </c>
       <c r="PO2" t="n">
-        <v>1005.407378976748</v>
+        <v>1005.407378977338</v>
       </c>
       <c r="PP2" t="n">
-        <v>1.402703247965252</v>
+        <v>1.402703247965924</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.9993944231016335</v>
+        <v>0.9993944231014352</v>
       </c>
       <c r="PR2" t="n">
-        <v>328.2561241994846</v>
+        <v>328.2561241991223</v>
       </c>
       <c r="PS2" t="n">
-        <v>127951.4854868463</v>
+        <v>127951.4855273279</v>
       </c>
       <c r="PT2" t="n">
-        <v>7.815462213627851e-06</v>
+        <v>7.815462211155179e-06</v>
       </c>
       <c r="PU2" t="n">
-        <v>91217.7865649428</v>
+        <v>91217.78659375869</v>
       </c>
       <c r="PV2" t="n">
-        <v>1.096277423140548e-05</v>
+        <v>1.096277422794232e-05</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.003744867677642244</v>
+        <v>0.003744867677654899</v>
       </c>
       <c r="PX2" t="n">
-        <v>1.695459610820003e-05</v>
+        <v>1.695459610817341e-05</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.02395653696811294</v>
+        <v>0.02395653696807589</v>
       </c>
       <c r="PZ2" t="n">
-        <v>91272.8016632488</v>
+        <v>91272.80169209998</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.187461827521414</v>
+        <v>1.187461827899727</v>
       </c>
       <c r="QB2" t="n">
-        <v>1.187461827521414</v>
+        <v>1.187461827899727</v>
       </c>
       <c r="QC2" t="n">
-        <v>317206.9853236498</v>
+        <v>317206.9853231416</v>
       </c>
       <c r="QD2" t="n">
-        <v>394070.7627924063</v>
+        <v>394070.7627917065</v>
       </c>
       <c r="QE2" t="n">
-        <v>3803.083408288813</v>
+        <v>3803.083408195522</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.7641341354152</v>
+        <v>716.7641341354922</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.407378976748</v>
+        <v>1005.407378977338</v>
       </c>
       <c r="QH2" t="n">
-        <v>328.2561241994846</v>
+        <v>328.2561241991223</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9993944231016335</v>
+        <v>0.9993944231014352</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.695459610820003e-05</v>
+        <v>1.695459610817341e-05</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.02395653696811294</v>
+        <v>0.02395653696807589</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.02486058099111186</v>
+        <v>0.02486058100855051</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.003173858076451555</v>
+        <v>0.003173858067597416</v>
       </c>
       <c r="QN2" t="n">
-        <v>0.01184586510509932</v>
+        <v>0.0118458651050686</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.03243939643352026</v>
+        <v>0.03243939643378745</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.04348345568972287</v>
+        <v>0.04348345569016397</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.1158031562959059</v>
+        <v>0.115803156305168</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.648871970276466e-05</v>
+        <v>1.648865584244485e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.5480602089713331</v>
+        <v>0.5480602053681971</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9602513417795367</v>
+        <v>0.9602513374290308</v>
       </c>
       <c r="QU2" t="n">
-        <v>397528.8304262649</v>
+        <v>397528.8299686524</v>
       </c>
       <c r="QV2" t="n">
-        <v>2.736322951314717</v>
+        <v>2.736322951368372</v>
       </c>
       <c r="QW2" t="n">
-        <v>380408.1888272862</v>
+        <v>380408.1888264862</v>
       </c>
       <c r="QX2" t="n">
         <v>0</v>
       </c>
       <c r="QY2" t="n">
-        <v>2669.791782863264</v>
+        <v>2669.791787207883</v>
       </c>
       <c r="QZ2" t="n">
-        <v>6.301354481476849</v>
+        <v>6.301354478584869</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.008798869683078516</v>
+        <v>0.008798869691792683</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.0007353719990230115</v>
+        <v>0.0007353719992118076</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.01161858068497762</v>
+        <v>0.0116185806973625</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01551463952753501</v>
+        <v>0.01551463954393428</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.004332950455750864</v>
+        <v>0.004332950460570659</v>
       </c>
     </row>
     <row r="3">
@@ -9557,34 +9557,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01611910595754645</v>
+        <v>0.01611910595787592</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.796499141582827e-07</v>
+        <v>-1.796499141566338e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379690142700133</v>
+        <v>0.0137969014269984</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02510994707363783</v>
+        <v>0.02510994707370795</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05502577480827145</v>
+        <v>0.05502577480866811</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.151604391493095e-13</v>
+        <v>1.269748195475984e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758172480583</v>
+        <v>81.7575817250582</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758172480583</v>
+        <v>81.7575817250582</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -9593,10 +9593,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758172480583</v>
+        <v>81.7575817250582</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758172480583</v>
+        <v>81.7575817250582</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -9605,295 +9605,295 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180726188</v>
+        <v>292.2676180725982</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394376956</v>
+        <v>132637.8394376628</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096102155</v>
+        <v>1.581790096101875</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834751767</v>
+        <v>334589.2834751621</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.280003946</v>
+        <v>418442.2800039254</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625807796</v>
+        <v>-687181.9625807223</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7090713704071</v>
+        <v>717.7090713704061</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.643209103399</v>
+        <v>1006.643209103398</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.40257835557421</v>
+        <v>1.402578355574211</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994973723756402</v>
+        <v>0.9994973723756401</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121222606</v>
+        <v>342.8584121222485</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.4165869924</v>
+        <v>185942.4165869464</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054389987e-06</v>
+        <v>5.378009054391317e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565725822</v>
+        <v>132571.8565725494</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095769522e-06</v>
+        <v>7.543079095771389e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038598564</v>
+        <v>0.003434455038598806</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856047268e-05</v>
+        <v>1.816725856047167e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190128273</v>
+        <v>0.02581791190128118</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394376956</v>
+        <v>132637.8394376628</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096102155</v>
+        <v>1.581790096101875</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096102155</v>
+        <v>1.581790096101875</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834751767</v>
+        <v>334589.2834751621</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.280003946</v>
+        <v>418442.2800039254</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723464</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7090713704071</v>
+        <v>717.7090713704061</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.643209103399</v>
+        <v>1006.643209103398</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121222606</v>
+        <v>342.8584121222485</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994973723756402</v>
+        <v>0.9994973723756401</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856047268e-05</v>
+        <v>1.816725856047167e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190128273</v>
+        <v>0.02581791190128118</v>
       </c>
       <c r="AW3" t="n">
-        <v>295.6000000001888</v>
+        <v>295.5999999999887</v>
       </c>
       <c r="AX3" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999950267</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="AZ3" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="BA3" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BB3" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="BC3" t="n">
-        <v>-696445.9368990482</v>
+        <v>-696445.9368984915</v>
       </c>
       <c r="BD3" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="BE3" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.40252562327819</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="BH3" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="BI3" t="n">
-        <v>193456.8974372416</v>
+        <v>193456.8974367843</v>
       </c>
       <c r="BJ3" t="n">
-        <v>5.169110087296861e-06</v>
+        <v>5.169110087309081e-06</v>
       </c>
       <c r="BK3" t="n">
-        <v>137934.6617461901</v>
+        <v>137934.6617458637</v>
       </c>
       <c r="BL3" t="n">
-        <v>7.249809346979611e-06</v>
+        <v>7.249809346996765e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695746383</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="BP3" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999950267</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="BS3" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="BT3" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BU3" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="BV3" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="BW3" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="BX3" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="CB3" t="n">
-        <v>295.6000000001888</v>
+        <v>295.5999999999887</v>
       </c>
       <c r="CC3" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999950267</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="CE3" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="CF3" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="CG3" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="CH3" t="n">
-        <v>-696445.9368990482</v>
+        <v>-696445.9368984915</v>
       </c>
       <c r="CI3" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.40252562327819</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="CM3" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="CN3" t="n">
-        <v>193456.8974372416</v>
+        <v>193456.8974367843</v>
       </c>
       <c r="CO3" t="n">
-        <v>5.169110087296861e-06</v>
+        <v>5.169110087309081e-06</v>
       </c>
       <c r="CP3" t="n">
-        <v>137934.6617461901</v>
+        <v>137934.6617458637</v>
       </c>
       <c r="CQ3" t="n">
-        <v>7.249809346979611e-06</v>
+        <v>7.249809346996765e-06</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695746383</v>
       </c>
       <c r="CS3" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="CU3" t="n">
-        <v>137999.999995353</v>
+        <v>137999.9999950267</v>
       </c>
       <c r="CV3" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.627145819756441</v>
+        <v>1.627145819753697</v>
       </c>
       <c r="CX3" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="CY3" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="CZ3" t="n">
         <v>3782.917347723356</v>
       </c>
       <c r="DA3" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="DB3" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="DC3" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="DE3" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2384587305842498</v>
+        <v>0.2384587305849943</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.2384587305842498</v>
+        <v>0.2384587305849943</v>
       </c>
       <c r="DI3" t="n">
-        <v>186219.5323207377</v>
+        <v>186219.53232129</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.776369934730423</v>
+        <v>2.776369934738503</v>
       </c>
       <c r="DK3" t="n">
         <v>421784.4310885898</v>
@@ -9902,340 +9902,340 @@
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>309.3780794218681</v>
+        <v>309.3780771274854</v>
       </c>
       <c r="DN3" t="n">
-        <v>126.4136423808788</v>
+        <v>126.4136414433811</v>
       </c>
       <c r="DO3" t="n">
-        <v>282.3727802865619</v>
+        <v>282.3727781924536</v>
       </c>
       <c r="DP3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ3" t="n">
-        <v>309.378079421868</v>
+        <v>309.3780771274854</v>
       </c>
       <c r="DR3" t="n">
-        <v>126.4136423808788</v>
+        <v>126.4136414433811</v>
       </c>
       <c r="DS3" t="n">
-        <v>282.3727802865619</v>
+        <v>282.3727781924536</v>
       </c>
       <c r="DT3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU3" t="n">
-        <v>247.8365041381347</v>
+        <v>247.8365048470112</v>
       </c>
       <c r="DV3" t="n">
-        <v>72726.23701467438</v>
+        <v>72726.23776199312</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.023014662145079</v>
+        <v>1.023014669728913</v>
       </c>
       <c r="DX3" t="n">
-        <v>302836.911197504</v>
+        <v>302836.911703836</v>
       </c>
       <c r="DY3" t="n">
-        <v>373927.0330753081</v>
+        <v>373927.0337851397</v>
       </c>
       <c r="DZ3" t="n">
-        <v>3790.093061424341</v>
+        <v>3790.09306134092</v>
       </c>
       <c r="EA3" t="n">
-        <v>-565396.3816263012</v>
+        <v>-565396.383582503</v>
       </c>
       <c r="EB3" t="n">
-        <v>716.2529430386463</v>
+        <v>716.2529430539445</v>
       </c>
       <c r="EC3" t="n">
-        <v>1004.831581179935</v>
+        <v>1004.831581200504</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.402900457088549</v>
+        <v>1.402900457087302</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.9992812858978388</v>
+        <v>0.9992812859001367</v>
       </c>
       <c r="EF3" t="n">
-        <v>315.6911150391014</v>
+        <v>315.6911154911718</v>
       </c>
       <c r="EG3" t="n">
-        <v>101954.5415995506</v>
+        <v>101954.5426473605</v>
       </c>
       <c r="EH3" t="n">
-        <v>9.808292836308604e-06</v>
+        <v>9.808292735506561e-06</v>
       </c>
       <c r="EI3" t="n">
-        <v>72674.1096165424</v>
+        <v>72674.11036349525</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.376005850331568e-05</v>
+        <v>1.376005836188822e-05</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.004048559458126754</v>
+        <v>0.004048559446574417</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.592113112511517e-05</v>
+        <v>1.592113116215792e-05</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.0223828836718405</v>
+        <v>0.02238288372807984</v>
       </c>
       <c r="EN3" t="n">
-        <v>72726.23701467438</v>
+        <v>72726.23776199312</v>
       </c>
       <c r="EO3" t="n">
-        <v>1.023014662145079</v>
+        <v>1.023014669728913</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.023014662145079</v>
+        <v>1.023014669728913</v>
       </c>
       <c r="EQ3" t="n">
-        <v>302836.911197504</v>
+        <v>302836.911703836</v>
       </c>
       <c r="ER3" t="n">
-        <v>373927.0330753081</v>
+        <v>373927.0337851397</v>
       </c>
       <c r="ES3" t="n">
-        <v>3790.093061424341</v>
+        <v>3790.09306134092</v>
       </c>
       <c r="ET3" t="n">
-        <v>716.2529430386463</v>
+        <v>716.2529430539445</v>
       </c>
       <c r="EU3" t="n">
-        <v>1004.831581179935</v>
+        <v>1004.831581200504</v>
       </c>
       <c r="EV3" t="n">
-        <v>315.6911150391014</v>
+        <v>315.6911154911718</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.9992812858978388</v>
+        <v>0.9992812859001367</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.592113112511517e-05</v>
+        <v>1.592113116215792e-05</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.0223828836718405</v>
+        <v>0.02238288372807984</v>
       </c>
       <c r="EZ3" t="n">
-        <v>295.592096864833</v>
+        <v>295.5920968650237</v>
       </c>
       <c r="FA3" t="n">
-        <v>134591.4165100993</v>
+        <v>134591.416549391</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.586979526685867</v>
+        <v>1.586979527148346</v>
       </c>
       <c r="FC3" t="n">
-        <v>336974.6309324591</v>
+        <v>336974.6309325157</v>
       </c>
       <c r="FD3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="FE3" t="n">
-        <v>3790.09306143399</v>
+        <v>3790.093061350568</v>
       </c>
       <c r="FF3" t="n">
-        <v>-698537.1242535374</v>
+        <v>-698537.1242295016</v>
       </c>
       <c r="FG3" t="n">
-        <v>717.8543580606939</v>
+        <v>717.8543580608007</v>
       </c>
       <c r="FH3" t="n">
-        <v>1006.765618719932</v>
+        <v>1006.76561872058</v>
       </c>
       <c r="FI3" t="n">
-        <v>1.40246500897444</v>
+        <v>1.402465008975134</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.9995326648235695</v>
+        <v>0.9995326648234371</v>
       </c>
       <c r="FK3" t="n">
-        <v>344.8011163634438</v>
+        <v>344.8011163635952</v>
       </c>
       <c r="FL3" t="n">
-        <v>188672.5201972946</v>
+        <v>188672.5202524434</v>
       </c>
       <c r="FM3" t="n">
-        <v>5.300188914391461e-06</v>
+        <v>5.300188912842221e-06</v>
       </c>
       <c r="FN3" t="n">
-        <v>134529.2174777768</v>
+        <v>134529.217517033</v>
       </c>
       <c r="FO3" t="n">
-        <v>7.433329493388248e-06</v>
+        <v>7.433329491219171e-06</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.003395573843597682</v>
+        <v>0.003395573843599117</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.832907665245867e-05</v>
+        <v>1.832907665247359e-05</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.02606695184416776</v>
+        <v>0.02606695184419459</v>
       </c>
       <c r="FS3" t="n">
-        <v>134591.4165100993</v>
+        <v>134591.416549391</v>
       </c>
       <c r="FT3" t="n">
-        <v>1.586979526685867</v>
+        <v>1.586979527148346</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.586979526685867</v>
+        <v>1.586979527148346</v>
       </c>
       <c r="FV3" t="n">
-        <v>336974.6309324591</v>
+        <v>336974.6309325157</v>
       </c>
       <c r="FW3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="FX3" t="n">
-        <v>3790.09306143399</v>
+        <v>3790.093061350568</v>
       </c>
       <c r="FY3" t="n">
-        <v>717.8543580606939</v>
+        <v>717.8543580608007</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1006.765618719932</v>
+        <v>1006.76561872058</v>
       </c>
       <c r="GA3" t="n">
-        <v>344.8011163634438</v>
+        <v>344.8011163635952</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.9995326648235695</v>
+        <v>0.9995326648234371</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.832907665245867e-05</v>
+        <v>1.832907665247359e-05</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.02606695184416776</v>
+        <v>0.02606695184419459</v>
       </c>
       <c r="GE3" t="n">
-        <v>295.592096864933</v>
+        <v>295.5920968650237</v>
       </c>
       <c r="GF3" t="n">
-        <v>134591.4165102587</v>
+        <v>134591.416549391</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.586979526687209</v>
+        <v>1.586979527148346</v>
       </c>
       <c r="GH3" t="n">
-        <v>336974.6309325306</v>
+        <v>336974.6309325157</v>
       </c>
       <c r="GI3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="GJ3" t="n">
-        <v>3790.09306143399</v>
+        <v>3790.093061350568</v>
       </c>
       <c r="GK3" t="n">
-        <v>-698537.1242538162</v>
+        <v>-698537.1242295016</v>
       </c>
       <c r="GL3" t="n">
-        <v>717.8543580606985</v>
+        <v>717.8543580608007</v>
       </c>
       <c r="GM3" t="n">
-        <v>1006.765618719937</v>
+        <v>1006.76561872058</v>
       </c>
       <c r="GN3" t="n">
-        <v>1.402465008974438</v>
+        <v>1.402465008975134</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.9995326648235703</v>
+        <v>0.9995326648234371</v>
       </c>
       <c r="GP3" t="n">
-        <v>344.8011163635022</v>
+        <v>344.8011163635952</v>
       </c>
       <c r="GQ3" t="n">
-        <v>188672.520197518</v>
+        <v>188672.5202524434</v>
       </c>
       <c r="GR3" t="n">
-        <v>5.300188914385186e-06</v>
+        <v>5.300188912842221e-06</v>
       </c>
       <c r="GS3" t="n">
-        <v>134529.2174779363</v>
+        <v>134529.217517033</v>
       </c>
       <c r="GT3" t="n">
-        <v>7.433329493379436e-06</v>
+        <v>7.433329491219171e-06</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.003395573843596535</v>
+        <v>0.003395573843599117</v>
       </c>
       <c r="GV3" t="n">
-        <v>1.832907665246354e-05</v>
+        <v>1.832907665247359e-05</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.02606695184417527</v>
+        <v>0.02606695184419459</v>
       </c>
       <c r="GX3" t="n">
-        <v>134591.4165102587</v>
+        <v>134591.416549391</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.586979526687209</v>
+        <v>1.586979527148346</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.586979526687209</v>
+        <v>1.586979527148346</v>
       </c>
       <c r="HA3" t="n">
-        <v>336974.6309325306</v>
+        <v>336974.6309325157</v>
       </c>
       <c r="HB3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="HC3" t="n">
-        <v>3790.09306143399</v>
+        <v>3790.093061350568</v>
       </c>
       <c r="HD3" t="n">
-        <v>717.8543580606985</v>
+        <v>717.8543580608007</v>
       </c>
       <c r="HE3" t="n">
-        <v>1006.765618719937</v>
+        <v>1006.76561872058</v>
       </c>
       <c r="HF3" t="n">
-        <v>344.8011163635022</v>
+        <v>344.8011163635952</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.9995326648235703</v>
+        <v>0.9995326648234371</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832907665246354e-05</v>
+        <v>1.832907665247359e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606695184417527</v>
+        <v>0.02606695184419459</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.01619337327214392</v>
+        <v>0.01619337326561065</v>
       </c>
       <c r="HK3" t="n">
-        <v>-1.972005777122695e-07</v>
+        <v>-1.97200576974195e-07</v>
       </c>
       <c r="HL3" t="n">
-        <v>0.01379727827868027</v>
+        <v>0.01379727827868033</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.02510093007318343</v>
+        <v>0.02510093007318202</v>
       </c>
       <c r="HN3" t="n">
         <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.05509138442342991</v>
+        <v>0.05509138441689602</v>
       </c>
       <c r="HP3" t="n">
-        <v>5.578244196981219e-06</v>
+        <v>5.578243624397572e-06</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9800024919407333</v>
+        <v>0.9800024832695586</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9800024919407332</v>
+        <v>0.9800024832695586</v>
       </c>
       <c r="HS3" t="n">
-        <v>520038.1656946837</v>
+        <v>520038.1644832381</v>
       </c>
       <c r="HT3" t="n">
-        <v>2.776362991778449</v>
+        <v>2.776362991770422</v>
       </c>
       <c r="HU3" t="n">
         <v>421784.4310885898</v>
@@ -10244,733 +10244,733 @@
         <v>0</v>
       </c>
       <c r="HW3" t="n">
-        <v>1491.123350713402</v>
+        <v>1491.123350941285</v>
       </c>
       <c r="HX3" t="n">
         <v>0</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.006406750846768899</v>
+        <v>0.00640675083455472</v>
       </c>
       <c r="HZ3" t="n">
-        <v>-7.140422320486634e-08</v>
+        <v>-7.140422306662255e-08</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.009980278999347086</v>
+        <v>0.009980278980144017</v>
       </c>
       <c r="IB3" t="n">
         <v>0</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.005483760087751323</v>
+        <v>0.005483760077183529</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.02457066441878053</v>
+        <v>0.02457066441896829</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.002422640682319302</v>
+        <v>0.00242264068263393</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.01187960968178385</v>
+        <v>0.01187960968177014</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.03214502245913443</v>
+        <v>0.03214502245925605</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.04299769189354422</v>
+        <v>0.04299769189374122</v>
       </c>
       <c r="II3" t="n">
-        <v>0.1140156291355623</v>
+        <v>0.1140156291363696</v>
       </c>
       <c r="IJ3" t="n">
-        <v>-1.162598489701239e-10</v>
+        <v>5.26367838205033e-12</v>
       </c>
       <c r="IK3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL3" t="n">
-        <v>274.2435361344367</v>
+        <v>274.2435360978989</v>
       </c>
       <c r="IM3" t="n">
-        <v>112.0574682180144</v>
+        <v>112.0574682030848</v>
       </c>
       <c r="IN3" t="n">
-        <v>250.3050956894182</v>
+        <v>250.3050956560697</v>
       </c>
       <c r="IO3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="IP3" t="n">
-        <v>140.6492035321424</v>
+        <v>140.6492035000935</v>
       </c>
       <c r="IQ3" t="n">
-        <v>112.0574682180144</v>
+        <v>112.0574682030848</v>
       </c>
       <c r="IR3" t="n">
-        <v>85.00189568941815</v>
+        <v>85.00189565606968</v>
       </c>
       <c r="IS3" t="n">
-        <v>37.18236384221016</v>
+        <v>37.18236383506229</v>
       </c>
       <c r="IT3" t="n">
-        <v>258.0744584638192</v>
+        <v>258.0744584740215</v>
       </c>
       <c r="IU3" t="n">
-        <v>84176.20445525029</v>
+        <v>84176.20446645263</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.137062779564131</v>
+        <v>1.13706277967045</v>
       </c>
       <c r="IW3" t="n">
-        <v>310150.1589753237</v>
+        <v>310150.1589826142</v>
       </c>
       <c r="IX3" t="n">
-        <v>384179.6725326292</v>
+        <v>384179.6725428497</v>
       </c>
       <c r="IY3" t="n">
-        <v>3788.68992400765</v>
+        <v>3788.689924009076</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-593584.4278929734</v>
+        <v>-593584.4279217744</v>
       </c>
       <c r="JA3" t="n">
-        <v>716.497571556498</v>
+        <v>716.4975715567633</v>
       </c>
       <c r="JB3" t="n">
-        <v>1005.154144229033</v>
+        <v>1005.154144229361</v>
       </c>
       <c r="JC3" t="n">
-        <v>1.40287166925837</v>
+        <v>1.402871669258309</v>
       </c>
       <c r="JD3" t="n">
-        <v>0.9993178407370684</v>
+        <v>0.9993178407371154</v>
       </c>
       <c r="JE3" t="n">
-        <v>322.1541924733808</v>
+        <v>322.1541924797567</v>
       </c>
       <c r="JF3" t="n">
-        <v>118008.1545507639</v>
+        <v>118008.1545664691</v>
       </c>
       <c r="JG3" t="n">
-        <v>8.473990664516554e-06</v>
+        <v>8.473990663388786e-06</v>
       </c>
       <c r="JH3" t="n">
-        <v>84118.99472825554</v>
+        <v>84118.99473945428</v>
       </c>
       <c r="JI3" t="n">
-        <v>1.188792142881018e-05</v>
+        <v>1.188792142722755e-05</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.00388833252271526</v>
+        <v>0.003888332522561782</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.645192271536398e-05</v>
+        <v>1.645192271588866e-05</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.02319013352541002</v>
+        <v>0.02319013352620923</v>
       </c>
       <c r="JM3" t="n">
-        <v>84176.20445525029</v>
+        <v>84176.20446645263</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.137062779564131</v>
+        <v>1.13706277967045</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.137062779564131</v>
+        <v>1.13706277967045</v>
       </c>
       <c r="JP3" t="n">
-        <v>310150.1589753237</v>
+        <v>310150.1589826142</v>
       </c>
       <c r="JQ3" t="n">
-        <v>384179.6725326292</v>
+        <v>384179.6725428497</v>
       </c>
       <c r="JR3" t="n">
-        <v>3788.68992400765</v>
+        <v>3788.689924009076</v>
       </c>
       <c r="JS3" t="n">
-        <v>716.497571556498</v>
+        <v>716.4975715567633</v>
       </c>
       <c r="JT3" t="n">
-        <v>1005.154144229033</v>
+        <v>1005.154144229361</v>
       </c>
       <c r="JU3" t="n">
-        <v>322.1541924733808</v>
+        <v>322.1541924797567</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9993178407370684</v>
+        <v>0.9993178407371154</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.645192271536398e-05</v>
+        <v>1.645192271588866e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02319013352541002</v>
+        <v>0.02319013352620923</v>
       </c>
       <c r="JY3" t="n">
-        <v>295.5936268383334</v>
+        <v>295.5936268385319</v>
       </c>
       <c r="JZ3" t="n">
-        <v>135251.2391523954</v>
+        <v>135251.2391520432</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.594754884336781</v>
+        <v>1.594754884331552</v>
       </c>
       <c r="KB3" t="n">
-        <v>336974.3825470902</v>
+        <v>336974.3825472337</v>
       </c>
       <c r="KC3" t="n">
-        <v>421784.4310885894</v>
+        <v>421784.4310887902</v>
       </c>
       <c r="KD3" t="n">
-        <v>3788.689924012219</v>
+        <v>3788.689924013645</v>
       </c>
       <c r="KE3" t="n">
-        <v>-698128.1645160323</v>
+        <v>-698128.164517005</v>
       </c>
       <c r="KF3" t="n">
-        <v>717.8560767284971</v>
+        <v>717.8560767285048</v>
       </c>
       <c r="KG3" t="n">
         <v>1006.776452400094</v>
       </c>
       <c r="KH3" t="n">
-        <v>1.402476742954243</v>
+        <v>1.402476742954228</v>
       </c>
       <c r="KI3" t="n">
-        <v>0.9995304186575446</v>
+        <v>0.9995304186575483</v>
       </c>
       <c r="KJ3" t="n">
-        <v>344.8026850520804</v>
+        <v>344.8026850521956</v>
       </c>
       <c r="KK3" t="n">
-        <v>189598.6406029844</v>
+        <v>189598.6406024894</v>
       </c>
       <c r="KL3" t="n">
-        <v>5.274299419129164e-06</v>
+        <v>5.274299419142934e-06</v>
       </c>
       <c r="KM3" t="n">
-        <v>135188.4382792722</v>
+        <v>135188.4382789207</v>
       </c>
       <c r="KN3" t="n">
-        <v>7.397082270705729e-06</v>
+        <v>7.39708227072496e-06</v>
       </c>
       <c r="KO3" t="n">
-        <v>0.003395617376240561</v>
+        <v>0.003395617376238223</v>
       </c>
       <c r="KP3" t="n">
-        <v>1.832924604019603e-05</v>
+        <v>1.83292460402056e-05</v>
       </c>
       <c r="KQ3" t="n">
-        <v>0.02606727748019941</v>
+        <v>0.02606727748021409</v>
       </c>
       <c r="KR3" t="n">
-        <v>135251.2391523954</v>
+        <v>135251.2391520432</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.594754884336781</v>
+        <v>1.594754884331552</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594754884336781</v>
+        <v>1.594754884331552</v>
       </c>
       <c r="KU3" t="n">
-        <v>336974.3825470902</v>
+        <v>336974.3825472337</v>
       </c>
       <c r="KV3" t="n">
-        <v>421784.4310885894</v>
+        <v>421784.4310887902</v>
       </c>
       <c r="KW3" t="n">
-        <v>3788.689924012219</v>
+        <v>3788.689924013645</v>
       </c>
       <c r="KX3" t="n">
-        <v>717.8560767284971</v>
+        <v>717.8560767285048</v>
       </c>
       <c r="KY3" t="n">
         <v>1006.776452400094</v>
       </c>
       <c r="KZ3" t="n">
-        <v>344.8026850520804</v>
+        <v>344.8026850521956</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.9995304186575446</v>
+        <v>0.9995304186575483</v>
       </c>
       <c r="LB3" t="n">
-        <v>1.832924604019603e-05</v>
+        <v>1.83292460402056e-05</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.02606727748019941</v>
+        <v>0.02606727748021409</v>
       </c>
       <c r="LD3" t="n">
-        <v>267.9477589552224</v>
+        <v>267.9477589609232</v>
       </c>
       <c r="LE3" t="n">
-        <v>95969.17446141892</v>
+        <v>95969.17446807519</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.248538319505584</v>
+        <v>1.248538319565577</v>
       </c>
       <c r="LG3" t="n">
-        <v>317205.5502746518</v>
+        <v>317205.5502787272</v>
       </c>
       <c r="LH3" t="n">
-        <v>394070.7717597419</v>
+        <v>394070.7717654551</v>
       </c>
       <c r="LI3" t="n">
-        <v>3788.689924013691</v>
+        <v>3788.689924015117</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-621100.2027559585</v>
+        <v>-621100.2027722262</v>
       </c>
       <c r="LK3" t="n">
-        <v>716.7797158911231</v>
+        <v>716.7797158912988</v>
       </c>
       <c r="LL3" t="n">
-        <v>1005.504916302188</v>
+        <v>1005.504916302395</v>
       </c>
       <c r="LM3" t="n">
-        <v>1.402808832351111</v>
+        <v>1.402808832351056</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.9993635925923406</v>
+        <v>0.9993635925923722</v>
       </c>
       <c r="LO3" t="n">
-        <v>328.2665470169991</v>
+        <v>328.2665470204952</v>
       </c>
       <c r="LP3" t="n">
-        <v>134541.1482430063</v>
+        <v>134541.1482523369</v>
       </c>
       <c r="LQ3" t="n">
-        <v>7.432670324723364e-06</v>
+        <v>7.432670324207899e-06</v>
       </c>
       <c r="LR3" t="n">
-        <v>95908.39830792553</v>
+        <v>95908.39831458069</v>
       </c>
       <c r="LS3" t="n">
-        <v>1.042661557947594e-05</v>
+        <v>1.042661557875243e-05</v>
       </c>
       <c r="LT3" t="n">
-        <v>0.003745328368470045</v>
+        <v>0.003745328368390444</v>
       </c>
       <c r="LU3" t="n">
-        <v>1.695598263459475e-05</v>
+        <v>1.695598263488357e-05</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.02395923138815755</v>
+        <v>0.0239592313885989</v>
       </c>
       <c r="LW3" t="n">
-        <v>95969.17446141892</v>
+        <v>95969.17446807519</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.248538319505584</v>
+        <v>1.248538319565577</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.248538319505584</v>
+        <v>1.248538319565577</v>
       </c>
       <c r="LZ3" t="n">
-        <v>317205.5502746518</v>
+        <v>317205.5502787272</v>
       </c>
       <c r="MA3" t="n">
-        <v>394070.7717597419</v>
+        <v>394070.7717654551</v>
       </c>
       <c r="MB3" t="n">
-        <v>3788.689924013691</v>
+        <v>3788.689924015117</v>
       </c>
       <c r="MC3" t="n">
-        <v>716.7797158911231</v>
+        <v>716.7797158912988</v>
       </c>
       <c r="MD3" t="n">
-        <v>1005.504916302188</v>
+        <v>1005.504916302395</v>
       </c>
       <c r="ME3" t="n">
-        <v>328.2665470169991</v>
+        <v>328.2665470204952</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.9993635925923406</v>
+        <v>0.9993635925923722</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.695598263459475e-05</v>
+        <v>1.695598263488357e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02395923138815755</v>
+        <v>0.0239592313885989</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.8512803574862591</v>
+        <v>0.8512803573559938</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.4365897039932644</v>
+        <v>0.4365897038851406</v>
       </c>
       <c r="MK3" t="n">
-        <v>253325.8283952323</v>
+        <v>253325.8283531163</v>
       </c>
       <c r="ML3" t="n">
-        <v>2.735430551868136</v>
+        <v>2.735430551759462</v>
       </c>
       <c r="MM3" t="n">
-        <v>380408.1977947222</v>
+        <v>380408.1978004354</v>
       </c>
       <c r="MN3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO3" t="n">
-        <v>165.2430545470124</v>
+        <v>165.2430608159529</v>
       </c>
       <c r="MP3" t="n">
-        <v>139.6735716621412</v>
+        <v>139.6735751152067</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-88.29813392800341</v>
+        <v>-88.29814019763626</v>
       </c>
       <c r="MR3" t="n">
-        <v>-32.30004902461366</v>
+        <v>-32.30005022235286</v>
       </c>
       <c r="MS3" t="n">
-        <v>289.5208855867259</v>
+        <v>289.5208927443761</v>
       </c>
       <c r="MT3" t="n">
-        <v>139.6735716621412</v>
+        <v>139.6735751152067</v>
       </c>
       <c r="MU3" t="n">
-        <v>-253.6013339280034</v>
+        <v>-253.6013401976363</v>
       </c>
       <c r="MV3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW3" t="n">
-        <v>226.0874092836376</v>
+        <v>226.0874072189353</v>
       </c>
       <c r="MX3" t="n">
-        <v>50430.90756407116</v>
+        <v>50430.90585990104</v>
       </c>
       <c r="MY3" t="n">
-        <v>0.7776564946263738</v>
+        <v>0.7776564754515459</v>
       </c>
       <c r="MZ3" t="n">
-        <v>287309.749475199</v>
+        <v>287309.7480008249</v>
       </c>
       <c r="NA3" t="n">
-        <v>352159.6001644814</v>
+        <v>352159.5980977052</v>
       </c>
       <c r="NB3" t="n">
-        <v>3803.179032483877</v>
+        <v>3803.179033035175</v>
       </c>
       <c r="NC3" t="n">
-        <v>-507691.2943316497</v>
+        <v>-507691.2886706348</v>
       </c>
       <c r="ND3" t="n">
-        <v>715.8670633491469</v>
+        <v>715.8670633212864</v>
       </c>
       <c r="NE3" t="n">
-        <v>1004.237986153547</v>
+        <v>1004.237986110096</v>
       </c>
       <c r="NF3" t="n">
-        <v>1.402827476731884</v>
+        <v>1.402827476725782</v>
       </c>
       <c r="NG3" t="n">
-        <v>0.9992550990912784</v>
+        <v>0.9992550990886178</v>
       </c>
       <c r="NH3" t="n">
-        <v>301.5053448624458</v>
+        <v>301.5053434842552</v>
       </c>
       <c r="NI3" t="n">
-        <v>70693.23146046331</v>
+        <v>70693.2290710845</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1.4145625816515e-05</v>
+        <v>1.414562629462668e-05</v>
       </c>
       <c r="NK3" t="n">
-        <v>50393.38951725892</v>
+        <v>50393.38781421891</v>
       </c>
       <c r="NL3" t="n">
-        <v>1.984387257097513e-05</v>
+        <v>1.984387324159702e-05</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.004436542654950287</v>
+        <v>0.004436542695358245</v>
       </c>
       <c r="NN3" t="n">
-        <v>1.476447665286535e-05</v>
+        <v>1.47644765411507e-05</v>
       </c>
       <c r="NO3" t="n">
-        <v>0.02063301277912315</v>
+        <v>0.02063301261076976</v>
       </c>
       <c r="NP3" t="n">
-        <v>50430.90756407116</v>
+        <v>50430.90585990104</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7776564946263738</v>
+        <v>0.7776564754515459</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.7776564946263738</v>
+        <v>0.7776564754515459</v>
       </c>
       <c r="NS3" t="n">
-        <v>287309.749475199</v>
+        <v>287309.7480008249</v>
       </c>
       <c r="NT3" t="n">
-        <v>352159.6001644814</v>
+        <v>352159.5980977052</v>
       </c>
       <c r="NU3" t="n">
-        <v>3803.179032483877</v>
+        <v>3803.179033035175</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8670633491469</v>
+        <v>715.8670633212864</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.237986153547</v>
+        <v>1004.237986110096</v>
       </c>
       <c r="NX3" t="n">
-        <v>301.5053448624458</v>
+        <v>301.5053434842552</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992550990912784</v>
+        <v>0.9992550990886178</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.476447665286535e-05</v>
+        <v>1.47644765411507e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.02063301277912315</v>
+        <v>0.02063301261076976</v>
       </c>
       <c r="OB3" t="n">
-        <v>239.722699363744</v>
+        <v>239.7226983338591</v>
       </c>
       <c r="OC3" t="n">
-        <v>61869.26775085712</v>
+        <v>61869.26670442236</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.8997439677046078</v>
+        <v>0.8997439563535052</v>
       </c>
       <c r="OE3" t="n">
-        <v>297049.0410926065</v>
+        <v>297049.0403572536</v>
       </c>
       <c r="OF3" t="n">
-        <v>365812.2337024948</v>
+        <v>365812.232671617</v>
       </c>
       <c r="OG3" t="n">
-        <v>3803.179032477927</v>
+        <v>3803.179033029224</v>
       </c>
       <c r="OH3" t="n">
-        <v>-545896.1101267062</v>
+        <v>-545896.1073729057</v>
       </c>
       <c r="OI3" t="n">
-        <v>716.0797251539146</v>
+        <v>716.0797251347431</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1004.537704675691</v>
+        <v>1004.537704647179</v>
       </c>
       <c r="OK3" t="n">
-        <v>1.402829418832904</v>
+        <v>1.402829418830644</v>
       </c>
       <c r="OL3" t="n">
-        <v>0.9992879326679429</v>
+        <v>0.9992879326663762</v>
       </c>
       <c r="OM3" t="n">
-        <v>310.4746048413564</v>
+        <v>310.4746041736895</v>
       </c>
       <c r="ON3" t="n">
-        <v>86730.35212621486</v>
+        <v>86730.35065900887</v>
       </c>
       <c r="OO3" t="n">
-        <v>1.152998893103471e-05</v>
+        <v>1.152998912608602e-05</v>
       </c>
       <c r="OP3" t="n">
-        <v>61825.30175220515</v>
+        <v>61825.30070641421</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1.617460767127324e-05</v>
+        <v>1.61746079448709e-05</v>
       </c>
       <c r="OR3" t="n">
-        <v>0.004184687660528152</v>
+        <v>0.004184687678445104</v>
       </c>
       <c r="OS3" t="n">
-        <v>1.549400279940096e-05</v>
+        <v>1.549400274488315e-05</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.02173487705641915</v>
+        <v>0.02173487697386418</v>
       </c>
       <c r="OU3" t="n">
-        <v>61869.26775085712</v>
+        <v>61869.26670442236</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.8997439677046078</v>
+        <v>0.8997439563535052</v>
       </c>
       <c r="OW3" t="n">
-        <v>0.8997439677046078</v>
+        <v>0.8997439563535052</v>
       </c>
       <c r="OX3" t="n">
-        <v>297049.0410926065</v>
+        <v>297049.0403572536</v>
       </c>
       <c r="OY3" t="n">
-        <v>365812.2337024948</v>
+        <v>365812.232671617</v>
       </c>
       <c r="OZ3" t="n">
-        <v>3803.179032477927</v>
+        <v>3803.179033029224</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.0797251539146</v>
+        <v>716.0797251347431</v>
       </c>
       <c r="PB3" t="n">
-        <v>1004.537704675691</v>
+        <v>1004.537704647179</v>
       </c>
       <c r="PC3" t="n">
-        <v>310.4746048413564</v>
+        <v>310.4746041736895</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9992879326679429</v>
+        <v>0.9992879326663762</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.549400279940096e-05</v>
+        <v>1.549400274488315e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.02173487705641915</v>
+        <v>0.02173487697386418</v>
       </c>
       <c r="PG3" t="n">
-        <v>267.934382234112</v>
+        <v>267.9343822392171</v>
       </c>
       <c r="PH3" t="n">
-        <v>91242.39340500161</v>
+        <v>91242.39323632099</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.187066319615372</v>
+        <v>1.187066317396814</v>
       </c>
       <c r="PJ3" t="n">
-        <v>317207.001052772</v>
+        <v>317207.0010568296</v>
       </c>
       <c r="PK3" t="n">
-        <v>394070.7717598422</v>
+        <v>394070.7717654549</v>
       </c>
       <c r="PL3" t="n">
-        <v>3803.17903247319</v>
+        <v>3803.179033024488</v>
       </c>
       <c r="PM3" t="n">
-        <v>-624931.6528315899</v>
+        <v>-624931.652993104</v>
       </c>
       <c r="PN3" t="n">
-        <v>716.7640334773245</v>
+        <v>716.7640334769164</v>
       </c>
       <c r="PO3" t="n">
-        <v>1005.406747520388</v>
+        <v>1005.406747516957</v>
       </c>
       <c r="PP3" t="n">
-        <v>1.402702563970371</v>
+        <v>1.402702563966383</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.9993946229418134</v>
+        <v>0.9993946229429916</v>
       </c>
       <c r="PR3" t="n">
-        <v>328.2560622394453</v>
+        <v>328.2560622424912</v>
       </c>
       <c r="PS3" t="n">
-        <v>127908.8203991829</v>
+        <v>127908.8201625026</v>
       </c>
       <c r="PT3" t="n">
-        <v>7.818069128299053e-06</v>
+        <v>7.818069142765478e-06</v>
       </c>
       <c r="PU3" t="n">
-        <v>91187.41469833419</v>
+        <v>91187.41452986177</v>
       </c>
       <c r="PV3" t="n">
-        <v>1.096642561156269e-05</v>
+        <v>1.09664256318236e-05</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.003744864567289465</v>
+        <v>0.003744864567194109</v>
       </c>
       <c r="PX3" t="n">
-        <v>1.695458758485234e-05</v>
+        <v>1.695458758508442e-05</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.0239565202162315</v>
+        <v>0.02395652021656468</v>
       </c>
       <c r="PZ3" t="n">
-        <v>91242.39340500161</v>
+        <v>91242.39323632099</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.187066319615372</v>
+        <v>1.187066317396814</v>
       </c>
       <c r="QB3" t="n">
-        <v>1.187066319615372</v>
+        <v>1.187066317396814</v>
       </c>
       <c r="QC3" t="n">
-        <v>317207.001052772</v>
+        <v>317207.0010568296</v>
       </c>
       <c r="QD3" t="n">
-        <v>394070.7717598422</v>
+        <v>394070.7717654549</v>
       </c>
       <c r="QE3" t="n">
-        <v>3803.17903247319</v>
+        <v>3803.179033024488</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.7640334773245</v>
+        <v>716.7640334769164</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.406747520388</v>
+        <v>1005.406747516957</v>
       </c>
       <c r="QH3" t="n">
-        <v>328.2560622394453</v>
+        <v>328.2560622424912</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9993946229418134</v>
+        <v>0.9993946229429916</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.695458758485234e-05</v>
+        <v>1.695458758508442e-05</v>
       </c>
       <c r="QK3" t="n">
-        <v>0.0239565202162315</v>
+        <v>0.02395652021656468</v>
       </c>
       <c r="QL3" t="n">
-        <v>0.02486056338829979</v>
+        <v>0.02486056327084056</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.003173845672497155</v>
+        <v>0.003173845727160658</v>
       </c>
       <c r="QN3" t="n">
-        <v>0.01184586017352789</v>
+        <v>0.01184586017386789</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.03243958782343079</v>
+        <v>0.03243958782045902</v>
       </c>
       <c r="QP3" t="n">
-        <v>0.04348344776027827</v>
+        <v>0.04348344775540386</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.1158033048180339</v>
+        <v>0.115803304747732</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.656694161550343e-05</v>
+        <v>1.656695057901392e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.5480601168858231</v>
+        <v>0.5480601401831607</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9602512543146208</v>
+        <v>0.9602512824436727</v>
       </c>
       <c r="QU3" t="n">
-        <v>397396.5165132096</v>
+        <v>397396.5195460007</v>
       </c>
       <c r="QV3" t="n">
-        <v>2.735411233314917</v>
+        <v>2.73541123349327</v>
       </c>
       <c r="QW3" t="n">
-        <v>380408.1977947222</v>
+        <v>380408.1978004354</v>
       </c>
       <c r="QX3" t="n">
         <v>0</v>
       </c>
       <c r="QY3" t="n">
-        <v>2827.536639962113</v>
+        <v>2827.536643367494</v>
       </c>
       <c r="QZ3" t="n">
-        <v>6.861653750086646</v>
+        <v>6.861653750382366</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.008937380210353948</v>
+        <v>0.008937380202599987</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.0008812159297739305</v>
+        <v>0.0008812159291171075</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.01169249161077061</v>
+        <v>0.01169249160058124</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01564006223317795</v>
+        <v>0.01564006221956096</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.004321111821280315</v>
+        <v>0.004321111817493361</v>
       </c>
     </row>
   </sheetData>
@@ -11751,19 +11751,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>6.910886856878072e-09</v>
+        <v>2.110692849005383e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>3.535300817506818e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -11791,10 +11791,10 @@
         <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>1.350782330545552e-08</v>
+        <v>1.803441267825943e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>1.599236669910008e-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
